--- a/Research/TH9800_Packets.xlsx
+++ b/Research/TH9800_Packets.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SleepyNinja\.git\TH9800_CAT\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15099703-F812-45B8-BF3B-C2C0DE7C3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5590ED66-E1B7-4EB7-947C-36C51E901A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10910" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{96F0B5EF-7042-4BBD-B54F-B5D392DC829F}"/>
+    <workbookView xWindow="19090" yWindow="-10910" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{96F0B5EF-7042-4BBD-B54F-B5D392DC829F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Power On Seq" sheetId="15" r:id="rId1"/>
-    <sheet name="Packets TX" sheetId="2" r:id="rId2"/>
-    <sheet name="AllPacketsTX" sheetId="3" r:id="rId3"/>
-    <sheet name="Checksum TX" sheetId="5" r:id="rId4"/>
-    <sheet name="RX NOTES" sheetId="16" r:id="rId5"/>
-    <sheet name="Packets RX" sheetId="6" r:id="rId6"/>
-    <sheet name="AllPacketsRX" sheetId="7" r:id="rId7"/>
-    <sheet name="RX_PWR_LVL" sheetId="10" r:id="rId8"/>
-    <sheet name="RX_V-M" sheetId="12" r:id="rId9"/>
-    <sheet name="TX when PTT" sheetId="18" r:id="rId10"/>
-    <sheet name="RX when PTT" sheetId="14" r:id="rId11"/>
-    <sheet name="Power Levels" sheetId="17" r:id="rId12"/>
-    <sheet name="STUN-REVIVE" sheetId="19" r:id="rId13"/>
+    <sheet name="Packets TX" sheetId="2" r:id="rId1"/>
+    <sheet name="AllPacketsTX" sheetId="3" r:id="rId2"/>
+    <sheet name="Checksum TX" sheetId="5" r:id="rId3"/>
+    <sheet name="RX NOTES" sheetId="16" r:id="rId4"/>
+    <sheet name="Packets RX" sheetId="6" r:id="rId5"/>
+    <sheet name="AllPacketsRX" sheetId="7" r:id="rId6"/>
+    <sheet name="RX_PWR_LVL" sheetId="10" r:id="rId7"/>
+    <sheet name="RX_V-M" sheetId="12" r:id="rId8"/>
+    <sheet name="TX when PTT" sheetId="18" r:id="rId9"/>
+    <sheet name="RX when PTT" sheetId="14" r:id="rId10"/>
+    <sheet name="Power Levels" sheetId="17" r:id="rId11"/>
+    <sheet name="STUN-REVIVE" sheetId="19" r:id="rId12"/>
+    <sheet name="Power On Seq" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="523">
   <si>
     <t>0xAA</t>
   </si>
@@ -2275,6 +2275,12 @@
   <si>
     <t>35</t>
   </si>
+  <si>
+    <t>10 (or 12?)</t>
+  </si>
+  <si>
+    <t>02R (or 01L?)</t>
+  </si>
 </sst>
 </file>
 
@@ -2559,7 +2565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2672,24 +2678,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2714,11 +2702,23 @@
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3075,13 +3075,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
@@ -3090,6 +3083,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3137,7 +3137,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D80A179C-B31E-43C3-87C6-732FE1D9BAAC}" name="Table1" displayName="Table1" ref="A1:M70" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D80A179C-B31E-43C3-87C6-732FE1D9BAAC}" name="Table1" displayName="Table1" ref="A1:M70" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
   <autoFilter ref="A1:M70" xr:uid="{D80A179C-B31E-43C3-87C6-732FE1D9BAAC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M68">
     <sortCondition ref="E1:E68"/>
@@ -3477,2116 +3477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F8E68-08D0-4CAC-823D-87C2636A73EF}">
-  <dimension ref="B1:CV175"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F8))</f>
-        <v>AAFD018081</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8:J8">TRANSPOSE(SUBSTITUTE(C4:C8,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G8" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H8" t="str">
-        <v>01</v>
-      </c>
-      <c r="I8" t="str">
-        <v>80</v>
-      </c>
-      <c r="J8" t="str">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F16))</f>
-        <v>AAFD02700072</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16:K16">TRANSPOSE(SUBSTITUTE(B11:B16,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G16" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H16" t="str">
-        <v>02</v>
-      </c>
-      <c r="I16" t="str">
-        <v>70</v>
-      </c>
-      <c r="J16" t="str">
-        <v>00</v>
-      </c>
-      <c r="K16" t="str">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F21" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F22))</f>
-        <v>AAFD01F0F1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="str" cm="1">
-        <f t="array" ref="F22:J22">TRANSPOSE(SUBSTITUTE(C18:C22,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G22" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H22" t="str">
-        <v>01</v>
-      </c>
-      <c r="I22" t="str">
-        <v>F0</v>
-      </c>
-      <c r="J22" t="str">
-        <v>F1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F29))</f>
-        <v>AAFD02720070</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" t="str" cm="1">
-        <f t="array" ref="F29:K29">TRANSPOSE(SUBSTITUTE(B24:B29,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G29" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H29" t="str">
-        <v>02</v>
-      </c>
-      <c r="I29" t="str">
-        <v>72</v>
-      </c>
-      <c r="J29" t="str">
-        <v>00</v>
-      </c>
-      <c r="K29" t="str">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F46))</f>
-        <v>AAFD0C84FFFFFFFF01480002FF00003C</v>
-      </c>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="str" cm="1">
-        <f t="array" ref="F46:U46">TRANSPOSE(SUBSTITUTE(C31:C46,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G46" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H46" t="str">
-        <v>0C</v>
-      </c>
-      <c r="I46" t="str">
-        <v>84</v>
-      </c>
-      <c r="J46" t="str">
-        <v>FF</v>
-      </c>
-      <c r="K46" t="str">
-        <v>FF</v>
-      </c>
-      <c r="L46" t="str">
-        <v>FF</v>
-      </c>
-      <c r="M46" t="str">
-        <v>FF</v>
-      </c>
-      <c r="N46" s="2" t="str">
-        <v>01</v>
-      </c>
-      <c r="O46" s="1" t="str">
-        <v>48</v>
-      </c>
-      <c r="P46" s="1" t="str">
-        <v>00</v>
-      </c>
-      <c r="Q46" s="1" t="str">
-        <v>02</v>
-      </c>
-      <c r="R46" t="str">
-        <v>FF</v>
-      </c>
-      <c r="S46" t="str">
-        <v>00</v>
-      </c>
-      <c r="T46" t="str">
-        <v>00</v>
-      </c>
-      <c r="U46" t="str">
-        <v>3C</v>
-      </c>
-    </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C50" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C51" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C53" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C55" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C59" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C60" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C61" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F63))</f>
-        <v>AAFD0C84FFFFFFFF81220082A503000F</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C63" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="str" cm="1">
-        <f t="array" ref="F63:U63">TRANSPOSE(SUBSTITUTE(C48:C63,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G63" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H63" t="str">
-        <v>0C</v>
-      </c>
-      <c r="I63" t="str">
-        <v>84</v>
-      </c>
-      <c r="J63" t="str">
-        <v>FF</v>
-      </c>
-      <c r="K63" t="str">
-        <v>FF</v>
-      </c>
-      <c r="L63" t="str">
-        <v>FF</v>
-      </c>
-      <c r="M63" t="str">
-        <v>FF</v>
-      </c>
-      <c r="N63" s="2" t="str">
-        <v>81</v>
-      </c>
-      <c r="O63" s="1" t="str">
-        <v>22</v>
-      </c>
-      <c r="P63" s="1" t="str">
-        <v>00</v>
-      </c>
-      <c r="Q63" s="1" t="str">
-        <v>82</v>
-      </c>
-      <c r="R63" t="str">
-        <v>A5</v>
-      </c>
-      <c r="S63" t="str">
-        <v>03</v>
-      </c>
-      <c r="T63" t="str">
-        <v>00</v>
-      </c>
-      <c r="U63" t="str">
-        <v>0F</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F70))</f>
-        <v>AAFD02522070</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="F70" t="str" cm="1">
-        <f t="array" ref="F70:K70">TRANSPOSE(SUBSTITUTE(B65:B70,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G70" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H70" t="str">
-        <v>02</v>
-      </c>
-      <c r="I70" t="str">
-        <v>52</v>
-      </c>
-      <c r="J70" t="str">
-        <v>20</v>
-      </c>
-      <c r="K70" t="str">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C72" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C73" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C74" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C75" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C76" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C77" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C78" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F78" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F79))</f>
-        <v>AAFD03A01802B9</v>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E79" s="2"/>
-      <c r="F79" t="str" cm="1">
-        <f t="array" ref="F79:L79">TRANSPOSE(SUBSTITUTE(C72:C78,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G79" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H79" t="str">
-        <v>03</v>
-      </c>
-      <c r="I79" t="str">
-        <v>A0</v>
-      </c>
-      <c r="J79" t="str">
-        <v>18</v>
-      </c>
-      <c r="K79" t="str">
-        <v>02</v>
-      </c>
-      <c r="L79" t="str">
-        <v>B9</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="162" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B162" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B163" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="164" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B164" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B165" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B166" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="168" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="169" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B169" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="170" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B172" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B173" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F174" t="str">
-        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F175))</f>
-        <v>AAFD0341FF41FCAAFD02034342AAFD0602400020203175AAFD090140003253494D505825AAFD080440000080000008C4AAFD02030302AAFD0203C3C2AAFD0602C100334850EEAAFD0901C000203133315620ADAAFD0225C1E6AAFD02038382</v>
-      </c>
-    </row>
-    <row r="175" spans="2:100" x14ac:dyDescent="0.25">
-      <c r="B175" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F175" t="str" cm="1">
-        <f t="array" ref="F175:CV175">TRANSPOSE(SUBSTITUTE(B81:B175,"0x",""))</f>
-        <v>AA</v>
-      </c>
-      <c r="G175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="H175" t="str">
-        <v>03</v>
-      </c>
-      <c r="I175" t="str">
-        <v>41</v>
-      </c>
-      <c r="J175" t="str">
-        <v>FF</v>
-      </c>
-      <c r="K175" t="str">
-        <v>41</v>
-      </c>
-      <c r="L175" t="str">
-        <v>FC</v>
-      </c>
-      <c r="M175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="N175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="O175" t="str">
-        <v>02</v>
-      </c>
-      <c r="P175" t="str">
-        <v>03</v>
-      </c>
-      <c r="Q175" t="str">
-        <v>43</v>
-      </c>
-      <c r="R175" t="str">
-        <v>42</v>
-      </c>
-      <c r="S175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="T175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="U175" t="str">
-        <v>06</v>
-      </c>
-      <c r="V175" t="str">
-        <v>02</v>
-      </c>
-      <c r="W175" t="str">
-        <v>40</v>
-      </c>
-      <c r="X175" t="str">
-        <v>00</v>
-      </c>
-      <c r="Y175" t="str">
-        <v>20</v>
-      </c>
-      <c r="Z175" t="str">
-        <v>20</v>
-      </c>
-      <c r="AA175" t="str">
-        <v>31</v>
-      </c>
-      <c r="AB175" t="str">
-        <v>75</v>
-      </c>
-      <c r="AC175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="AD175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="AE175" t="str">
-        <v>09</v>
-      </c>
-      <c r="AF175" t="str">
-        <v>01</v>
-      </c>
-      <c r="AG175" t="str">
-        <v>40</v>
-      </c>
-      <c r="AH175" t="str">
-        <v>00</v>
-      </c>
-      <c r="AI175" t="str">
-        <v>32</v>
-      </c>
-      <c r="AJ175" t="str">
-        <v>53</v>
-      </c>
-      <c r="AK175" t="str">
-        <v>49</v>
-      </c>
-      <c r="AL175" t="str">
-        <v>4D</v>
-      </c>
-      <c r="AM175" t="str">
-        <v>50</v>
-      </c>
-      <c r="AN175" t="str">
-        <v>58</v>
-      </c>
-      <c r="AO175" t="str">
-        <v>25</v>
-      </c>
-      <c r="AP175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="AQ175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="AR175" t="str">
-        <v>08</v>
-      </c>
-      <c r="AS175" t="str">
-        <v>04</v>
-      </c>
-      <c r="AT175" t="str">
-        <v>40</v>
-      </c>
-      <c r="AU175" t="str">
-        <v>00</v>
-      </c>
-      <c r="AV175" t="str">
-        <v>00</v>
-      </c>
-      <c r="AW175" t="str">
-        <v>80</v>
-      </c>
-      <c r="AX175" t="str">
-        <v>00</v>
-      </c>
-      <c r="AY175" t="str">
-        <v>00</v>
-      </c>
-      <c r="AZ175" t="str">
-        <v>08</v>
-      </c>
-      <c r="BA175" t="str">
-        <v>C4</v>
-      </c>
-      <c r="BB175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="BC175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="BD175" t="str">
-        <v>02</v>
-      </c>
-      <c r="BE175" t="str">
-        <v>03</v>
-      </c>
-      <c r="BF175" t="str">
-        <v>03</v>
-      </c>
-      <c r="BG175" t="str">
-        <v>02</v>
-      </c>
-      <c r="BH175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="BI175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="BJ175" t="str">
-        <v>02</v>
-      </c>
-      <c r="BK175" t="str">
-        <v>03</v>
-      </c>
-      <c r="BL175" t="str">
-        <v>C3</v>
-      </c>
-      <c r="BM175" t="str">
-        <v>C2</v>
-      </c>
-      <c r="BN175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="BO175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="BP175" t="str">
-        <v>06</v>
-      </c>
-      <c r="BQ175" t="str">
-        <v>02</v>
-      </c>
-      <c r="BR175" t="str">
-        <v>C1</v>
-      </c>
-      <c r="BS175" t="str">
-        <v>00</v>
-      </c>
-      <c r="BT175" t="str">
-        <v>33</v>
-      </c>
-      <c r="BU175" t="str">
-        <v>48</v>
-      </c>
-      <c r="BV175" t="str">
-        <v>50</v>
-      </c>
-      <c r="BW175" t="str">
-        <v>EE</v>
-      </c>
-      <c r="BX175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="BY175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="BZ175" t="str">
-        <v>09</v>
-      </c>
-      <c r="CA175" t="str">
-        <v>01</v>
-      </c>
-      <c r="CB175" t="str">
-        <v>C0</v>
-      </c>
-      <c r="CC175" t="str">
-        <v>00</v>
-      </c>
-      <c r="CD175" t="str">
-        <v>20</v>
-      </c>
-      <c r="CE175" t="str">
-        <v>31</v>
-      </c>
-      <c r="CF175" t="str">
-        <v>33</v>
-      </c>
-      <c r="CG175" t="str">
-        <v>31</v>
-      </c>
-      <c r="CH175" t="str">
-        <v>56</v>
-      </c>
-      <c r="CI175" t="str">
-        <v>20</v>
-      </c>
-      <c r="CJ175" t="str">
-        <v>AD</v>
-      </c>
-      <c r="CK175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="CL175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="CM175" t="str">
-        <v>02</v>
-      </c>
-      <c r="CN175" t="str">
-        <v>25</v>
-      </c>
-      <c r="CO175" t="str">
-        <v>C1</v>
-      </c>
-      <c r="CP175" t="str">
-        <v>E6</v>
-      </c>
-      <c r="CQ175" t="str">
-        <v>AA</v>
-      </c>
-      <c r="CR175" t="str">
-        <v>FD</v>
-      </c>
-      <c r="CS175" t="str">
-        <v>02</v>
-      </c>
-      <c r="CT175" t="str">
-        <v>03</v>
-      </c>
-      <c r="CU175" t="str">
-        <v>83</v>
-      </c>
-      <c r="CV175" t="str">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:DD1048576">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
-      <formula>"AA"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
-      <formula>"FD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
-      <formula>"0xFD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
-      <formula>"0xAA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF9E3CD-2759-404F-9723-870EF2ECB184}">
-  <dimension ref="A1:Z12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="49.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="20" customWidth="1"/>
-    <col min="7" max="26" width="9.140625" style="20"/>
-    <col min="27" max="16384" width="9.140625" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>360</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>487</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>487</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>486</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08C0377-036C-40B2-90AA-F809ED88AEF2}">
-  <dimension ref="B1:S23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L19" t="str" cm="1">
-        <f t="array" ref="L19">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(B2:B7)),"0x","")</f>
-        <v>AAFD021D031C</v>
-      </c>
-      <c r="M19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L20" t="str" cm="1">
-        <f t="array" ref="L20">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(B8:B13)),"0x","")</f>
-        <v>AAFD02150116</v>
-      </c>
-      <c r="M20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L21" t="str" cm="1">
-        <f t="array" ref="L21">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(C2:C7)),"0x","")</f>
-        <v>AAFD021D001F</v>
-      </c>
-      <c r="M21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L22" t="str" cm="1">
-        <f t="array" ref="L22">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(C8:C13)),"0x","")</f>
-        <v>AAFD02150017</v>
-      </c>
-      <c r="M22" t="s">
-        <v>308</v>
-      </c>
-      <c r="O22" t="str" cm="1">
-        <f t="array" ref="O22:S22">TRANSPOSE(B2:B6)</f>
-        <v>0xAA</v>
-      </c>
-      <c r="P22" t="str">
-        <v>0xFD</v>
-      </c>
-      <c r="Q22" t="str">
-        <v>0x02</v>
-      </c>
-      <c r="R22" t="str">
-        <v>0x1D</v>
-      </c>
-      <c r="S22" t="str">
-        <v>0x03</v>
-      </c>
-    </row>
-    <row r="23" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="O23" t="str" cm="1">
-        <f t="array" ref="O23:S23">TRANSPOSE(B8:B12)</f>
-        <v>0xAA</v>
-      </c>
-      <c r="P23" t="str">
-        <v>0xFD</v>
-      </c>
-      <c r="Q23" t="str">
-        <v>0x02</v>
-      </c>
-      <c r="R23" t="str">
-        <v>0x15</v>
-      </c>
-      <c r="S23" t="str">
-        <v>0x01</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G2:G13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"FD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"AA"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F427A6AF-1D90-4128-A669-92C981920ABE}">
-  <dimension ref="B1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="51"/>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
-        <v>423</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
-        <v>424</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD45E57-5088-4CDA-BA4B-E4E29697AAB7}">
-  <dimension ref="B2:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="122" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F5" s="18" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F12" s="18" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F13" s="18" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
-        <v>485</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D94CF-A2A0-4F25-9A9F-F93989AAC083}">
   <dimension ref="A1:AZ70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:R20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5610,10 +3505,10 @@
       <c r="B1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="37" t="s">
         <v>291</v>
       </c>
@@ -5623,10 +3518,10 @@
       <c r="R1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="U1" s="46"/>
+      <c r="U1" s="57"/>
       <c r="V1" s="37" t="s">
         <v>291</v>
       </c>
@@ -18562,12 +16457,1913 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08C0377-036C-40B2-90AA-F809ED88AEF2}">
+  <dimension ref="B1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L19" t="str" cm="1">
+        <f t="array" ref="L19">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(B2:B7)),"0x","")</f>
+        <v>AAFD021D031C</v>
+      </c>
+      <c r="M19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L20" t="str" cm="1">
+        <f t="array" ref="L20">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(B8:B13)),"0x","")</f>
+        <v>AAFD02150116</v>
+      </c>
+      <c r="M20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L21" t="str" cm="1">
+        <f t="array" ref="L21">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(C2:C7)),"0x","")</f>
+        <v>AAFD021D001F</v>
+      </c>
+      <c r="M21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L22" t="str" cm="1">
+        <f t="array" ref="L22">SUBSTITUTE(TRANSPOSE(_xlfn.CONCAT(C8:C13)),"0x","")</f>
+        <v>AAFD02150017</v>
+      </c>
+      <c r="M22" t="s">
+        <v>308</v>
+      </c>
+      <c r="O22" t="str" cm="1">
+        <f t="array" ref="O22:S22">TRANSPOSE(B2:B6)</f>
+        <v>0xAA</v>
+      </c>
+      <c r="P22" t="str">
+        <v>0xFD</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>0x02</v>
+      </c>
+      <c r="R22" t="str">
+        <v>0x1D</v>
+      </c>
+      <c r="S22" t="str">
+        <v>0x03</v>
+      </c>
+    </row>
+    <row r="23" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="O23" t="str" cm="1">
+        <f t="array" ref="O23:S23">TRANSPOSE(B8:B12)</f>
+        <v>0xAA</v>
+      </c>
+      <c r="P23" t="str">
+        <v>0xFD</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>0x02</v>
+      </c>
+      <c r="R23" t="str">
+        <v>0x15</v>
+      </c>
+      <c r="S23" t="str">
+        <v>0x01</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"AA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F427A6AF-1D90-4128-A669-92C981920ABE}">
+  <dimension ref="B1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="62"/>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD45E57-5088-4CDA-BA4B-E4E29697AAB7}">
+  <dimension ref="B2:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="122" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="18" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12" s="18" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="18" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F8E68-08D0-4CAC-823D-87C2636A73EF}">
+  <dimension ref="B1:CV175"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F8))</f>
+        <v>AAFD018081</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="str" cm="1">
+        <f t="array" ref="F8:J8">TRANSPOSE(SUBSTITUTE(C4:C8,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G8" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H8" t="str">
+        <v>01</v>
+      </c>
+      <c r="I8" t="str">
+        <v>80</v>
+      </c>
+      <c r="J8" t="str">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F16))</f>
+        <v>AAFD02700072</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" t="str" cm="1">
+        <f t="array" ref="F16:K16">TRANSPOSE(SUBSTITUTE(B11:B16,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G16" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H16" t="str">
+        <v>02</v>
+      </c>
+      <c r="I16" t="str">
+        <v>70</v>
+      </c>
+      <c r="J16" t="str">
+        <v>00</v>
+      </c>
+      <c r="K16" t="str">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F21" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F22))</f>
+        <v>AAFD01F0F1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" t="str" cm="1">
+        <f t="array" ref="F22:J22">TRANSPOSE(SUBSTITUTE(C18:C22,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G22" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H22" t="str">
+        <v>01</v>
+      </c>
+      <c r="I22" t="str">
+        <v>F0</v>
+      </c>
+      <c r="J22" t="str">
+        <v>F1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F29))</f>
+        <v>AAFD02720070</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" t="str" cm="1">
+        <f t="array" ref="F29:K29">TRANSPOSE(SUBSTITUTE(B24:B29,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G29" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H29" t="str">
+        <v>02</v>
+      </c>
+      <c r="I29" t="str">
+        <v>72</v>
+      </c>
+      <c r="J29" t="str">
+        <v>00</v>
+      </c>
+      <c r="K29" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F46))</f>
+        <v>AAFD0C84FFFFFFFF01480002FF00003C</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C46" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="str" cm="1">
+        <f t="array" ref="F46:U46">TRANSPOSE(SUBSTITUTE(C31:C46,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G46" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H46" t="str">
+        <v>0C</v>
+      </c>
+      <c r="I46" t="str">
+        <v>84</v>
+      </c>
+      <c r="J46" t="str">
+        <v>FF</v>
+      </c>
+      <c r="K46" t="str">
+        <v>FF</v>
+      </c>
+      <c r="L46" t="str">
+        <v>FF</v>
+      </c>
+      <c r="M46" t="str">
+        <v>FF</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <v>01</v>
+      </c>
+      <c r="O46" s="1" t="str">
+        <v>48</v>
+      </c>
+      <c r="P46" s="1" t="str">
+        <v>00</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <v>02</v>
+      </c>
+      <c r="R46" t="str">
+        <v>FF</v>
+      </c>
+      <c r="S46" t="str">
+        <v>00</v>
+      </c>
+      <c r="T46" t="str">
+        <v>00</v>
+      </c>
+      <c r="U46" t="str">
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F63))</f>
+        <v>AAFD0C84FFFFFFFF81220082A503000F</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C63" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="str" cm="1">
+        <f t="array" ref="F63:U63">TRANSPOSE(SUBSTITUTE(C48:C63,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G63" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H63" t="str">
+        <v>0C</v>
+      </c>
+      <c r="I63" t="str">
+        <v>84</v>
+      </c>
+      <c r="J63" t="str">
+        <v>FF</v>
+      </c>
+      <c r="K63" t="str">
+        <v>FF</v>
+      </c>
+      <c r="L63" t="str">
+        <v>FF</v>
+      </c>
+      <c r="M63" t="str">
+        <v>FF</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <v>81</v>
+      </c>
+      <c r="O63" s="1" t="str">
+        <v>22</v>
+      </c>
+      <c r="P63" s="1" t="str">
+        <v>00</v>
+      </c>
+      <c r="Q63" s="1" t="str">
+        <v>82</v>
+      </c>
+      <c r="R63" t="str">
+        <v>A5</v>
+      </c>
+      <c r="S63" t="str">
+        <v>03</v>
+      </c>
+      <c r="T63" t="str">
+        <v>00</v>
+      </c>
+      <c r="U63" t="str">
+        <v>0F</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F70))</f>
+        <v>AAFD02522070</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" t="str" cm="1">
+        <f t="array" ref="F70:K70">TRANSPOSE(SUBSTITUTE(B65:B70,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G70" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H70" t="str">
+        <v>02</v>
+      </c>
+      <c r="I70" t="str">
+        <v>52</v>
+      </c>
+      <c r="J70" t="str">
+        <v>20</v>
+      </c>
+      <c r="K70" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C72" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C78" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F78" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F79))</f>
+        <v>AAFD03A01802B9</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
+      <c r="F79" t="str" cm="1">
+        <f t="array" ref="F79:L79">TRANSPOSE(SUBSTITUTE(C72:C78,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G79" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H79" t="str">
+        <v>03</v>
+      </c>
+      <c r="I79" t="str">
+        <v>A0</v>
+      </c>
+      <c r="J79" t="str">
+        <v>18</v>
+      </c>
+      <c r="K79" t="str">
+        <v>02</v>
+      </c>
+      <c r="L79" t="str">
+        <v>B9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B161" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="162" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B163" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="164" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B165" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B166" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="169" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B169" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="170" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B172" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F174" t="str">
+        <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(F175))</f>
+        <v>AAFD0341FF41FCAAFD02034342AAFD0602400020203175AAFD090140003253494D505825AAFD080440000080000008C4AAFD02030302AAFD0203C3C2AAFD0602C100334850EEAAFD0901C000203133315620ADAAFD0225C1E6AAFD02038382</v>
+      </c>
+    </row>
+    <row r="175" spans="2:100" x14ac:dyDescent="0.25">
+      <c r="B175" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" t="str" cm="1">
+        <f t="array" ref="F175:CV175">TRANSPOSE(SUBSTITUTE(B81:B175,"0x",""))</f>
+        <v>AA</v>
+      </c>
+      <c r="G175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="H175" t="str">
+        <v>03</v>
+      </c>
+      <c r="I175" t="str">
+        <v>41</v>
+      </c>
+      <c r="J175" t="str">
+        <v>FF</v>
+      </c>
+      <c r="K175" t="str">
+        <v>41</v>
+      </c>
+      <c r="L175" t="str">
+        <v>FC</v>
+      </c>
+      <c r="M175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="N175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="O175" t="str">
+        <v>02</v>
+      </c>
+      <c r="P175" t="str">
+        <v>03</v>
+      </c>
+      <c r="Q175" t="str">
+        <v>43</v>
+      </c>
+      <c r="R175" t="str">
+        <v>42</v>
+      </c>
+      <c r="S175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="T175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="U175" t="str">
+        <v>06</v>
+      </c>
+      <c r="V175" t="str">
+        <v>02</v>
+      </c>
+      <c r="W175" t="str">
+        <v>40</v>
+      </c>
+      <c r="X175" t="str">
+        <v>00</v>
+      </c>
+      <c r="Y175" t="str">
+        <v>20</v>
+      </c>
+      <c r="Z175" t="str">
+        <v>20</v>
+      </c>
+      <c r="AA175" t="str">
+        <v>31</v>
+      </c>
+      <c r="AB175" t="str">
+        <v>75</v>
+      </c>
+      <c r="AC175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="AD175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="AE175" t="str">
+        <v>09</v>
+      </c>
+      <c r="AF175" t="str">
+        <v>01</v>
+      </c>
+      <c r="AG175" t="str">
+        <v>40</v>
+      </c>
+      <c r="AH175" t="str">
+        <v>00</v>
+      </c>
+      <c r="AI175" t="str">
+        <v>32</v>
+      </c>
+      <c r="AJ175" t="str">
+        <v>53</v>
+      </c>
+      <c r="AK175" t="str">
+        <v>49</v>
+      </c>
+      <c r="AL175" t="str">
+        <v>4D</v>
+      </c>
+      <c r="AM175" t="str">
+        <v>50</v>
+      </c>
+      <c r="AN175" t="str">
+        <v>58</v>
+      </c>
+      <c r="AO175" t="str">
+        <v>25</v>
+      </c>
+      <c r="AP175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="AQ175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="AR175" t="str">
+        <v>08</v>
+      </c>
+      <c r="AS175" t="str">
+        <v>04</v>
+      </c>
+      <c r="AT175" t="str">
+        <v>40</v>
+      </c>
+      <c r="AU175" t="str">
+        <v>00</v>
+      </c>
+      <c r="AV175" t="str">
+        <v>00</v>
+      </c>
+      <c r="AW175" t="str">
+        <v>80</v>
+      </c>
+      <c r="AX175" t="str">
+        <v>00</v>
+      </c>
+      <c r="AY175" t="str">
+        <v>00</v>
+      </c>
+      <c r="AZ175" t="str">
+        <v>08</v>
+      </c>
+      <c r="BA175" t="str">
+        <v>C4</v>
+      </c>
+      <c r="BB175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="BC175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="BD175" t="str">
+        <v>02</v>
+      </c>
+      <c r="BE175" t="str">
+        <v>03</v>
+      </c>
+      <c r="BF175" t="str">
+        <v>03</v>
+      </c>
+      <c r="BG175" t="str">
+        <v>02</v>
+      </c>
+      <c r="BH175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="BI175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="BJ175" t="str">
+        <v>02</v>
+      </c>
+      <c r="BK175" t="str">
+        <v>03</v>
+      </c>
+      <c r="BL175" t="str">
+        <v>C3</v>
+      </c>
+      <c r="BM175" t="str">
+        <v>C2</v>
+      </c>
+      <c r="BN175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="BO175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="BP175" t="str">
+        <v>06</v>
+      </c>
+      <c r="BQ175" t="str">
+        <v>02</v>
+      </c>
+      <c r="BR175" t="str">
+        <v>C1</v>
+      </c>
+      <c r="BS175" t="str">
+        <v>00</v>
+      </c>
+      <c r="BT175" t="str">
+        <v>33</v>
+      </c>
+      <c r="BU175" t="str">
+        <v>48</v>
+      </c>
+      <c r="BV175" t="str">
+        <v>50</v>
+      </c>
+      <c r="BW175" t="str">
+        <v>EE</v>
+      </c>
+      <c r="BX175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="BY175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="BZ175" t="str">
+        <v>09</v>
+      </c>
+      <c r="CA175" t="str">
+        <v>01</v>
+      </c>
+      <c r="CB175" t="str">
+        <v>C0</v>
+      </c>
+      <c r="CC175" t="str">
+        <v>00</v>
+      </c>
+      <c r="CD175" t="str">
+        <v>20</v>
+      </c>
+      <c r="CE175" t="str">
+        <v>31</v>
+      </c>
+      <c r="CF175" t="str">
+        <v>33</v>
+      </c>
+      <c r="CG175" t="str">
+        <v>31</v>
+      </c>
+      <c r="CH175" t="str">
+        <v>56</v>
+      </c>
+      <c r="CI175" t="str">
+        <v>20</v>
+      </c>
+      <c r="CJ175" t="str">
+        <v>AD</v>
+      </c>
+      <c r="CK175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="CL175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="CM175" t="str">
+        <v>02</v>
+      </c>
+      <c r="CN175" t="str">
+        <v>25</v>
+      </c>
+      <c r="CO175" t="str">
+        <v>C1</v>
+      </c>
+      <c r="CP175" t="str">
+        <v>E6</v>
+      </c>
+      <c r="CQ175" t="str">
+        <v>AA</v>
+      </c>
+      <c r="CR175" t="str">
+        <v>FD</v>
+      </c>
+      <c r="CS175" t="str">
+        <v>02</v>
+      </c>
+      <c r="CT175" t="str">
+        <v>03</v>
+      </c>
+      <c r="CU175" t="str">
+        <v>83</v>
+      </c>
+      <c r="CV175" t="str">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:DD1048576">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>"AA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>"FD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>"0xFD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+      <formula>"0xAA"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899E6AC2-02D2-4A93-BEDF-BF379E35DB7E}">
   <dimension ref="A1:CE100"/>
   <sheetViews>
-    <sheetView topLeftCell="AF10" workbookViewId="0">
-      <selection activeCell="AP29" sqref="AP29"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="BN8" sqref="BN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24348,7 +24144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB3AAAF-6AEC-4994-B7AA-E6FC07769F3A}">
   <dimension ref="B2:B4"/>
   <sheetViews>
@@ -24376,12 +24172,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A0B156-B528-431C-B24E-1CA04DF6378E}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="I51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24440,7 +24236,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="20" t="s">
         <v>517</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -24647,7 +24443,7 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="46" t="s">
         <v>403</v>
       </c>
     </row>
@@ -24770,7 +24566,7 @@
         <v>364</v>
       </c>
       <c r="M10" s="19"/>
-      <c r="Q10" s="52" t="s">
+      <c r="Q10" s="46" t="s">
         <v>404</v>
       </c>
     </row>
@@ -24932,7 +24728,7 @@
         <v>364</v>
       </c>
       <c r="M14" s="19"/>
-      <c r="Q14" s="52" t="s">
+      <c r="Q14" s="46" t="s">
         <v>405</v>
       </c>
     </row>
@@ -24974,7 +24770,7 @@
         <v>364</v>
       </c>
       <c r="M15" s="19"/>
-      <c r="Q15" s="52"/>
+      <c r="Q15" s="46"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
@@ -25095,7 +24891,7 @@
         <v>364</v>
       </c>
       <c r="M18" s="19"/>
-      <c r="Q18" s="52" t="s">
+      <c r="Q18" s="46" t="s">
         <v>406</v>
       </c>
     </row>
@@ -25242,7 +25038,7 @@
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
-      <c r="Q22" s="52"/>
+      <c r="Q22" s="46"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -25324,7 +25120,7 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
-      <c r="Q25" s="52"/>
+      <c r="Q25" s="46"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
@@ -25352,7 +25148,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="46" t="s">
         <v>397</v>
       </c>
     </row>
@@ -25382,7 +25178,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
-      <c r="Q27" s="52" t="s">
+      <c r="Q27" s="46" t="s">
         <v>396</v>
       </c>
     </row>
@@ -25717,7 +25513,7 @@
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
-      <c r="Q39" s="54"/>
+      <c r="Q39" s="48"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
@@ -25745,7 +25541,7 @@
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
-      <c r="Q40" s="54"/>
+      <c r="Q40" s="48"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -25773,7 +25569,7 @@
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
-      <c r="Q41" s="54"/>
+      <c r="Q41" s="48"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
@@ -25801,7 +25597,7 @@
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
-      <c r="Q42" s="54"/>
+      <c r="Q42" s="48"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
@@ -25829,7 +25625,7 @@
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
-      <c r="Q43" s="54"/>
+      <c r="Q43" s="48"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
@@ -25859,7 +25655,7 @@
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
-      <c r="Q44" s="54"/>
+      <c r="Q44" s="48"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
@@ -25887,7 +25683,7 @@
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
-      <c r="Q45" s="54"/>
+      <c r="Q45" s="48"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
@@ -25917,7 +25713,7 @@
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
-      <c r="Q46" s="54"/>
+      <c r="Q46" s="48"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
@@ -25945,7 +25741,7 @@
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
-      <c r="Q47" s="54"/>
+      <c r="Q47" s="48"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
@@ -25973,7 +25769,7 @@
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
-      <c r="Q48" s="54"/>
+      <c r="Q48" s="48"/>
     </row>
     <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -26638,22 +26434,22 @@
       </c>
     </row>
     <row r="72" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q72" s="53" t="s">
+      <c r="Q72" s="47" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q74" s="52" t="s">
+      <c r="Q74" s="46" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q75" s="52" t="s">
+      <c r="Q75" s="46" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q78" s="63" t="s">
+      <c r="Q78" s="56" t="s">
         <v>500</v>
       </c>
     </row>
@@ -26689,7 +26485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643B3517-8437-4592-8BB0-EC2672EC4154}">
   <dimension ref="A1:DH63"/>
   <sheetViews>
@@ -26719,8 +26515,8 @@
       <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="4" t="s">
         <v>291</v>
       </c>
@@ -26731,8 +26527,8 @@
         <v>209</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
       <c r="K1" s="4" t="s">
         <v>291</v>
       </c>
@@ -26745,8 +26541,8 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
       <c r="U1" s="4" t="s">
         <v>291</v>
       </c>
@@ -26762,8 +26558,8 @@
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
       <c r="AH1" s="4" t="s">
         <v>291</v>
       </c>
@@ -26778,8 +26574,8 @@
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
       <c r="AT1" s="4" t="s">
         <v>291</v>
       </c>
@@ -51476,12 +51272,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187985C7-07CA-43F3-B35D-778ACF736C60}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52849,12 +52645,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6890003-6BCB-43D4-B3CF-C1199841BA70}">
   <dimension ref="A1:AR59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52876,14 +52672,14 @@
       <c r="R1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
       <c r="AE1" s="16" t="s">
         <v>239</v>
       </c>
@@ -55177,12 +54973,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89532B3-11EA-43FB-8C77-E51E3C9C7D72}">
   <dimension ref="A1:BM70"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AG53" sqref="AG53"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AV26" sqref="AV26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55215,14 +55011,14 @@
       <c r="L1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
       <c r="Y1" s="16" t="s">
         <v>240</v>
       </c>
@@ -55645,29 +55441,29 @@
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="N4" s="49" t="s">
+      <c r="N4" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="AA4" s="49" t="s">
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="AA4" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -56066,11 +55862,11 @@
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str" cm="1">
@@ -57715,4 +57511,209 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF9E3CD-2759-404F-9723-870EF2ECB184}">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="9.140625" style="20"/>
+    <col min="27" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Research/TH9800_Packets.xlsx
+++ b/Research/TH9800_Packets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SleepyNinja\.git\TH9800_CAT\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD6856-0B1A-44E7-BF77-76B3E4ADF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B2F4BF-7C5B-4C44-9FD0-2730202424DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10910" windowWidth="38620" windowHeight="21100" tabRatio="736" activeTab="1" xr2:uid="{96F0B5EF-7042-4BBD-B54F-B5D392DC829F}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="484">
   <si>
     <t>0xAA</t>
   </si>
@@ -1725,6 +1725,21 @@
   </si>
   <si>
     <t>CMD0</t>
+  </si>
+  <si>
+    <t>AAFD0203C3C2AAFD0804C00300800000004FAAFD02038382</t>
+  </si>
+  <si>
+    <t>SIG BARS RIGHT SIDE</t>
+  </si>
+  <si>
+    <t>AAFD02034342**AAFD02030302</t>
+  </si>
+  <si>
+    <t>AAFD080440020080000000CE</t>
+  </si>
+  <si>
+    <t>01-09</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2214,7 +2229,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2332,6 +2346,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,7 +2362,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3151,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F8E68-08D0-4CAC-823D-87C2636A73EF}">
   <dimension ref="A1:CW174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,68 +3184,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>414</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>415</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="66" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="62" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="61" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="73" t="str">
+      <c r="G6" s="72" t="str">
         <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(G7))</f>
         <v>AAFD018081</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="60"/>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="63" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="3" t="str" cm="1">
@@ -3237,10 +3255,10 @@
       <c r="H7" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I7" s="53" t="str">
+      <c r="I7" s="52" t="str">
         <v>01</v>
       </c>
-      <c r="J7" s="56" t="str">
+      <c r="J7" s="55" t="str">
         <v>80</v>
       </c>
       <c r="K7" s="11" t="str">
@@ -3249,11 +3267,11 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>416</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -3262,11 +3280,11 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>416</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -3275,10 +3293,10 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="60"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3287,10 +3305,10 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="61"/>
+      <c r="D11" s="60"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -3299,10 +3317,10 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="61"/>
+      <c r="D12" s="60"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3311,10 +3329,10 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="61"/>
+      <c r="D13" s="60"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -3323,11 +3341,11 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="G14" s="73" t="str">
+      <c r="D14" s="60"/>
+      <c r="G14" s="72" t="str">
         <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(G15))</f>
         <v>AAFD02700072</v>
       </c>
@@ -3338,10 +3356,10 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="61"/>
+      <c r="D15" s="60"/>
       <c r="G15" s="3" t="str" cm="1">
         <f t="array" ref="G15:L15">TRANSPOSE(SUBSTITUTE(C10:C15,"0x",""))</f>
         <v>AA</v>
@@ -3349,10 +3367,10 @@
       <c r="H15" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I15" s="53" t="str">
+      <c r="I15" s="52" t="str">
         <v>02</v>
       </c>
-      <c r="J15" s="56" t="str">
+      <c r="J15" s="55" t="str">
         <v>70</v>
       </c>
       <c r="K15" s="5" t="str">
@@ -3363,8 +3381,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -3373,8 +3391,8 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="60"/>
-      <c r="D17" s="61" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="3"/>
@@ -3385,8 +3403,8 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="60"/>
-      <c r="D18" s="61" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60" t="s">
         <v>1</v>
       </c>
       <c r="G18" s="3"/>
@@ -3397,8 +3415,8 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="60"/>
-      <c r="D19" s="62" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="61" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="3"/>
@@ -3409,8 +3427,8 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="60"/>
-      <c r="D20" s="63" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="62" t="s">
         <v>168</v>
       </c>
       <c r="G20" s="3" t="str">
@@ -3424,8 +3442,8 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C21" s="60"/>
-      <c r="D21" s="64" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="63" t="s">
         <v>169</v>
       </c>
       <c r="G21" s="3" t="str" cm="1">
@@ -3435,10 +3453,10 @@
       <c r="H21" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I21" s="53" t="str">
+      <c r="I21" s="52" t="str">
         <v>01</v>
       </c>
-      <c r="J21" s="56" t="str">
+      <c r="J21" s="55" t="str">
         <v>F0</v>
       </c>
       <c r="K21" s="11" t="str">
@@ -3447,8 +3465,8 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3457,10 +3475,10 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="60"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -3469,10 +3487,10 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="60"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -3481,10 +3499,10 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="60"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -3493,10 +3511,10 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="60"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -3505,10 +3523,10 @@
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="60"/>
       <c r="G27" s="3" t="str">
         <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(G28))</f>
         <v>AAFD02720070</v>
@@ -3520,10 +3538,10 @@
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="61"/>
+      <c r="D28" s="60"/>
       <c r="G28" s="3" t="str" cm="1">
         <f t="array" ref="G28:L28">TRANSPOSE(SUBSTITUTE(C23:C28,"0x",""))</f>
         <v>AA</v>
@@ -3531,10 +3549,10 @@
       <c r="H28" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I28" s="53" t="str">
+      <c r="I28" s="52" t="str">
         <v>02</v>
       </c>
-      <c r="J28" s="56" t="str">
+      <c r="J28" s="55" t="str">
         <v>72</v>
       </c>
       <c r="K28" s="5" t="str">
@@ -3545,8 +3563,8 @@
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3555,92 +3573,92 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C30" s="60"/>
-      <c r="D30" s="61" t="s">
+      <c r="C30" s="59"/>
+      <c r="D30" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C31" s="60"/>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="60"/>
-      <c r="D32" s="62" t="s">
+      <c r="C32" s="59"/>
+      <c r="D32" s="61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C33" s="60"/>
-      <c r="D33" s="63" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="62" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C34" s="60"/>
-      <c r="D34" s="69" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C35" s="60"/>
-      <c r="D35" s="69" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C36" s="60"/>
-      <c r="D36" s="69" t="s">
+      <c r="C36" s="59"/>
+      <c r="D36" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C37" s="60"/>
-      <c r="D37" s="69" t="s">
+      <c r="C37" s="59"/>
+      <c r="D37" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C38" s="60"/>
-      <c r="D38" s="69" t="s">
+      <c r="C38" s="59"/>
+      <c r="D38" s="68" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C39" s="60"/>
-      <c r="D39" s="69" t="s">
+      <c r="C39" s="59"/>
+      <c r="D39" s="68" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C40" s="60"/>
-      <c r="D40" s="69" t="s">
+      <c r="C40" s="59"/>
+      <c r="D40" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C41" s="60"/>
-      <c r="D41" s="69" t="s">
+      <c r="C41" s="59"/>
+      <c r="D41" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C42" s="60"/>
-      <c r="D42" s="69" t="s">
+      <c r="C42" s="59"/>
+      <c r="D42" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C43" s="60"/>
-      <c r="D43" s="69" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C44" s="60"/>
-      <c r="D44" s="69" t="s">
+      <c r="C44" s="59"/>
+      <c r="D44" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G44" t="str">
@@ -3649,8 +3667,8 @@
       </c>
     </row>
     <row r="45" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C45" s="60"/>
-      <c r="D45" s="64" t="s">
+      <c r="C45" s="59"/>
+      <c r="D45" s="63" t="s">
         <v>50</v>
       </c>
       <c r="G45" s="3" t="str" cm="1">
@@ -3660,10 +3678,10 @@
       <c r="H45" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I45" s="53" t="str">
+      <c r="I45" s="52" t="str">
         <v>0C</v>
       </c>
-      <c r="J45" s="56" t="str">
+      <c r="J45" s="55" t="str">
         <v>84</v>
       </c>
       <c r="K45" s="5" t="str">
@@ -3678,22 +3696,22 @@
       <c r="N45" s="5" t="str">
         <v>FF</v>
       </c>
-      <c r="O45" s="57" t="str">
+      <c r="O45" s="56" t="str">
         <v>01</v>
       </c>
-      <c r="P45" s="72" t="str">
+      <c r="P45" s="71" t="str">
         <v>48</v>
       </c>
-      <c r="Q45" s="72" t="str">
+      <c r="Q45" s="71" t="str">
         <v>00</v>
       </c>
-      <c r="R45" s="57" t="str">
+      <c r="R45" s="56" t="str">
         <v>02</v>
       </c>
-      <c r="S45" s="72" t="str">
+      <c r="S45" s="71" t="str">
         <v>FF</v>
       </c>
-      <c r="T45" s="72" t="str">
+      <c r="T45" s="71" t="str">
         <v>00</v>
       </c>
       <c r="U45" s="5" t="str">
@@ -3704,96 +3722,96 @@
       </c>
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C47" s="60"/>
-      <c r="D47" s="61" t="s">
+      <c r="C47" s="59"/>
+      <c r="D47" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C48" s="60"/>
-      <c r="D48" s="61" t="s">
+      <c r="C48" s="59"/>
+      <c r="D48" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C49" s="60"/>
-      <c r="D49" s="62" t="s">
+      <c r="C49" s="59"/>
+      <c r="D49" s="61" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C50" s="60"/>
-      <c r="D50" s="63" t="s">
+      <c r="C50" s="59"/>
+      <c r="D50" s="62" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C51" s="60"/>
-      <c r="D51" s="69" t="s">
+      <c r="C51" s="59"/>
+      <c r="D51" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C52" s="60"/>
-      <c r="D52" s="69" t="s">
+      <c r="C52" s="59"/>
+      <c r="D52" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C53" s="60"/>
-      <c r="D53" s="69" t="s">
+      <c r="C53" s="59"/>
+      <c r="D53" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C54" s="60"/>
-      <c r="D54" s="69" t="s">
+      <c r="C54" s="59"/>
+      <c r="D54" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C55" s="60"/>
-      <c r="D55" s="69" t="s">
+      <c r="C55" s="59"/>
+      <c r="D55" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C56" s="60"/>
-      <c r="D56" s="69" t="s">
+      <c r="C56" s="59"/>
+      <c r="D56" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="57" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C57" s="60"/>
-      <c r="D57" s="69" t="s">
+      <c r="C57" s="59"/>
+      <c r="D57" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C58" s="60"/>
-      <c r="D58" s="69" t="s">
+      <c r="C58" s="59"/>
+      <c r="D58" s="68" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C59" s="60"/>
-      <c r="D59" s="69" t="s">
+      <c r="C59" s="59"/>
+      <c r="D59" s="68" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="60" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C60" s="60"/>
-      <c r="D60" s="69" t="s">
+      <c r="C60" s="59"/>
+      <c r="D60" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C61" s="60"/>
-      <c r="D61" s="69" t="s">
+      <c r="C61" s="59"/>
+      <c r="D61" s="68" t="s">
         <v>8</v>
       </c>
       <c r="G61" t="str">
@@ -3802,8 +3820,8 @@
       </c>
     </row>
     <row r="62" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C62" s="60"/>
-      <c r="D62" s="64" t="s">
+      <c r="C62" s="59"/>
+      <c r="D62" s="63" t="s">
         <v>91</v>
       </c>
       <c r="G62" s="3" t="str" cm="1">
@@ -3813,10 +3831,10 @@
       <c r="H62" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I62" s="53" t="str">
+      <c r="I62" s="52" t="str">
         <v>0C</v>
       </c>
-      <c r="J62" s="56" t="str">
+      <c r="J62" s="55" t="str">
         <v>84</v>
       </c>
       <c r="K62" s="5" t="str">
@@ -3831,22 +3849,22 @@
       <c r="N62" s="5" t="str">
         <v>FF</v>
       </c>
-      <c r="O62" s="57" t="str">
+      <c r="O62" s="56" t="str">
         <v>81</v>
       </c>
-      <c r="P62" s="72" t="str">
+      <c r="P62" s="71" t="str">
         <v>22</v>
       </c>
-      <c r="Q62" s="72" t="str">
+      <c r="Q62" s="71" t="str">
         <v>00</v>
       </c>
-      <c r="R62" s="57" t="str">
+      <c r="R62" s="56" t="str">
         <v>82</v>
       </c>
-      <c r="S62" s="72" t="str">
+      <c r="S62" s="71" t="str">
         <v>A5</v>
       </c>
-      <c r="T62" s="72" t="str">
+      <c r="T62" s="71" t="str">
         <v>03</v>
       </c>
       <c r="U62" s="5" t="str">
@@ -3857,48 +3875,48 @@
       </c>
     </row>
     <row r="63" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C63" s="60"/>
-      <c r="D63" s="61"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60"/>
     </row>
     <row r="64" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="61"/>
+      <c r="D64" s="60"/>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="61"/>
+      <c r="D65" s="60"/>
     </row>
     <row r="66" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="61"/>
+      <c r="D66" s="60"/>
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="61"/>
+      <c r="D67" s="60"/>
     </row>
     <row r="68" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="61"/>
+      <c r="D68" s="60"/>
       <c r="G68" t="str">
         <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(G69))</f>
         <v>AAFD02522070</v>
       </c>
     </row>
     <row r="69" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="68" t="s">
+      <c r="C69" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="61"/>
+      <c r="D69" s="60"/>
       <c r="G69" s="3" t="str" cm="1">
         <f t="array" ref="G69:L69">TRANSPOSE(SUBSTITUTE(C64:C69,"0x",""))</f>
         <v>AA</v>
@@ -3906,10 +3924,10 @@
       <c r="H69" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I69" s="53" t="str">
+      <c r="I69" s="52" t="str">
         <v>02</v>
       </c>
-      <c r="J69" s="56" t="str">
+      <c r="J69" s="55" t="str">
         <v>52</v>
       </c>
       <c r="K69" s="5" t="str">
@@ -3920,48 +3938,48 @@
       </c>
     </row>
     <row r="70" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="60"/>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C71" s="60"/>
-      <c r="D71" s="61" t="s">
+      <c r="C71" s="59"/>
+      <c r="D71" s="60" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C72" s="60"/>
-      <c r="D72" s="61" t="s">
+      <c r="C72" s="59"/>
+      <c r="D72" s="60" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C73" s="60"/>
-      <c r="D73" s="62" t="s">
+      <c r="C73" s="59"/>
+      <c r="D73" s="61" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C74" s="60"/>
-      <c r="D74" s="63" t="s">
+      <c r="C74" s="59"/>
+      <c r="D74" s="62" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C75" s="60"/>
-      <c r="D75" s="69" t="s">
+      <c r="C75" s="59"/>
+      <c r="D75" s="68" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C76" s="60"/>
-      <c r="D76" s="69" t="s">
+      <c r="C76" s="59"/>
+      <c r="D76" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C77" s="60"/>
-      <c r="D77" s="64" t="s">
+      <c r="C77" s="59"/>
+      <c r="D77" s="63" t="s">
         <v>145</v>
       </c>
       <c r="G77" t="str">
@@ -3970,8 +3988,8 @@
       </c>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="60"/>
       <c r="G78" s="3" t="str" cm="1">
         <f t="array" ref="G78:M78">TRANSPOSE(SUBSTITUTE(D71:D77,"0x",""))</f>
         <v>AA</v>
@@ -3979,10 +3997,10 @@
       <c r="H78" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I78" s="53" t="str">
+      <c r="I78" s="52" t="str">
         <v>03</v>
       </c>
-      <c r="J78" s="56" t="str">
+      <c r="J78" s="55" t="str">
         <v>A0</v>
       </c>
       <c r="K78" s="5" t="str">
@@ -3996,14 +4014,14 @@
       </c>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C79" s="60"/>
-      <c r="D79" s="61"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C80" s="60" t="s">
+      <c r="C80" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D80" s="61"/>
+      <c r="D80" s="60"/>
       <c r="E80" s="3" t="s">
         <v>413</v>
       </c>
@@ -4011,573 +4029,644 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="60" t="s">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C81" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="61"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="65" t="s">
+      <c r="D81" s="60"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C82" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="61"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="66" t="s">
+      <c r="D82" s="60"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C83" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="61"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="67" t="s">
+      <c r="D83" s="60"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C84" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="61"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="67" t="s">
+      <c r="D84" s="60"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C85" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="61"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="68" t="s">
+      <c r="D85" s="60"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C86" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="D86" s="61"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="60" t="s">
+      <c r="D86" s="60"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C87" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="61"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="60" t="s">
+      <c r="D87" s="60"/>
+      <c r="G87" s="3" t="str" cm="1">
+        <f t="array" ref="G87:M87">TRANSPOSE(C80:C86)</f>
+        <v>0xAA</v>
+      </c>
+      <c r="H87" s="3" t="str">
+        <v>0xFD</v>
+      </c>
+      <c r="I87" s="52" t="str">
+        <v>0x03</v>
+      </c>
+      <c r="J87" s="55" t="str">
+        <v>0x41</v>
+      </c>
+      <c r="K87" s="5" t="str">
+        <v>0xFF</v>
+      </c>
+      <c r="L87" s="5" t="str">
+        <v>0x41</v>
+      </c>
+      <c r="M87" s="11" t="str">
+        <v>0xFC</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C88" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="61"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="65" t="s">
+      <c r="D88" s="60"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C89" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="61"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="66" t="s">
+      <c r="D89" s="60"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C90" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="61"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="67" t="s">
+      <c r="D90" s="60"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C91" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="61"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="68" t="s">
+      <c r="D91" s="60"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C92" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="61"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="60" t="s">
+      <c r="D92" s="60"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C93" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="61"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="60" t="s">
+      <c r="D93" s="60"/>
+      <c r="G93" s="98"/>
+      <c r="H93" s="98"/>
+      <c r="I93" s="98"/>
+      <c r="J93" s="98"/>
+      <c r="K93" s="98"/>
+      <c r="L93" s="98"/>
+      <c r="M93" s="98"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C94" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="61"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="65" t="s">
+      <c r="D94" s="60"/>
+      <c r="G94" s="98"/>
+      <c r="H94" s="98"/>
+      <c r="I94" s="98"/>
+      <c r="J94" s="98"/>
+      <c r="K94" s="98"/>
+      <c r="L94" s="98"/>
+      <c r="M94" s="98"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C95" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="61"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="67" t="s">
+      <c r="D95" s="60"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C96" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="61"/>
+      <c r="D96" s="60"/>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="67" t="s">
+      <c r="C97" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="61"/>
+      <c r="D97" s="60"/>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="61"/>
+      <c r="D98" s="60"/>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="67" t="s">
+      <c r="C99" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D99" s="61"/>
+      <c r="D99" s="60"/>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="67" t="s">
+      <c r="C100" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="61"/>
+      <c r="D100" s="60"/>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="67" t="s">
+      <c r="C101" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D101" s="61"/>
+      <c r="D101" s="60"/>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="68" t="s">
+      <c r="C102" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="D102" s="61"/>
+      <c r="D102" s="60"/>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D103" s="61"/>
+      <c r="D103" s="60"/>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="60" t="s">
+      <c r="C104" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D104" s="61"/>
+      <c r="D104" s="60"/>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="61"/>
+      <c r="D105" s="60"/>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="66" t="s">
+      <c r="C106" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="61"/>
+      <c r="D106" s="60"/>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="67" t="s">
+      <c r="C107" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="61"/>
+      <c r="D107" s="60"/>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="61"/>
+      <c r="D108" s="60"/>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="67" t="s">
+      <c r="C109" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D109" s="61"/>
+      <c r="D109" s="60"/>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="67" t="s">
+      <c r="C110" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="61"/>
+      <c r="D110" s="60"/>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="67" t="s">
+      <c r="C111" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D111" s="61"/>
+      <c r="D111" s="60"/>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="67" t="s">
+      <c r="C112" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="D112" s="61"/>
+      <c r="D112" s="60"/>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="67" t="s">
+      <c r="C113" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="61"/>
+      <c r="D113" s="60"/>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="67" t="s">
+      <c r="C114" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="61"/>
+      <c r="D114" s="60"/>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="68" t="s">
+      <c r="C115" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="61"/>
+      <c r="D115" s="60"/>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="60" t="s">
+      <c r="C116" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D116" s="61"/>
+      <c r="D116" s="60"/>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="60" t="s">
+      <c r="C117" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D117" s="61"/>
+      <c r="D117" s="60"/>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="65" t="s">
+      <c r="C118" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D118" s="61"/>
+      <c r="D118" s="60"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="66" t="s">
+      <c r="C119" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="61"/>
+      <c r="D119" s="60"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="67" t="s">
+      <c r="C120" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="61"/>
+      <c r="D120" s="60"/>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="67" t="s">
+      <c r="C121" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="61"/>
+      <c r="D121" s="60"/>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="67" t="s">
+      <c r="C122" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="61"/>
+      <c r="D122" s="60"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="67" t="s">
+      <c r="C123" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D123" s="61"/>
+      <c r="D123" s="60"/>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="67" t="s">
+      <c r="C124" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D124" s="61"/>
+      <c r="D124" s="60"/>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C125" s="67" t="s">
+      <c r="C125" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="61"/>
+      <c r="D125" s="60"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C126" s="67" t="s">
+      <c r="C126" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D126" s="61"/>
+      <c r="D126" s="60"/>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="68" t="s">
+      <c r="C127" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="61"/>
+      <c r="D127" s="60"/>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="60" t="s">
+      <c r="C128" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D128" s="61"/>
+      <c r="D128" s="60"/>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="60" t="s">
+      <c r="C129" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D129" s="61"/>
+      <c r="D129" s="60"/>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="65" t="s">
+      <c r="C130" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D130" s="61"/>
+      <c r="D130" s="60"/>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="66" t="s">
+      <c r="C131" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="61"/>
+      <c r="D131" s="60"/>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="67" t="s">
+      <c r="C132" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="61"/>
+      <c r="D132" s="60"/>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="68" t="s">
+      <c r="C133" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="61"/>
+      <c r="D133" s="60"/>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="60" t="s">
+      <c r="C134" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D134" s="61"/>
+      <c r="D134" s="60"/>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="60" t="s">
+      <c r="C135" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D135" s="61"/>
+      <c r="D135" s="60"/>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="65" t="s">
+      <c r="C136" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="61"/>
+      <c r="D136" s="60"/>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="66" t="s">
+      <c r="C137" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="61"/>
+      <c r="D137" s="60"/>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="67" t="s">
+      <c r="C138" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D138" s="61"/>
+      <c r="D138" s="60"/>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="68" t="s">
+      <c r="C139" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="D139" s="61"/>
+      <c r="D139" s="60"/>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="60" t="s">
+      <c r="C140" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D140" s="61"/>
+      <c r="D140" s="60"/>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="60" t="s">
+      <c r="C141" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D141" s="61"/>
+      <c r="D141" s="60"/>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="65" t="s">
+      <c r="C142" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="61"/>
+      <c r="D142" s="60"/>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="66" t="s">
+      <c r="C143" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="61"/>
+      <c r="D143" s="60"/>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="67" t="s">
+      <c r="C144" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D144" s="61"/>
+      <c r="D144" s="60"/>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="67" t="s">
+      <c r="C145" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D145" s="61"/>
+      <c r="D145" s="60"/>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="67" t="s">
+      <c r="C146" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D146" s="61"/>
+      <c r="D146" s="60"/>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="67" t="s">
+      <c r="C147" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="D147" s="61"/>
+      <c r="D147" s="60"/>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="67" t="s">
+      <c r="C148" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="61"/>
+      <c r="D148" s="60"/>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="68" t="s">
+      <c r="C149" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="D149" s="61"/>
+      <c r="D149" s="60"/>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="60" t="s">
+      <c r="C150" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D150" s="61"/>
+      <c r="D150" s="60"/>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="60" t="s">
+      <c r="C151" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D151" s="61"/>
+      <c r="D151" s="60"/>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="65" t="s">
+      <c r="C152" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D152" s="61"/>
+      <c r="D152" s="60"/>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="66" t="s">
+      <c r="C153" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D153" s="61"/>
+      <c r="D153" s="60"/>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" s="67" t="s">
+      <c r="C154" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D154" s="61"/>
+      <c r="D154" s="60"/>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="67" t="s">
+      <c r="C155" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="61"/>
+      <c r="D155" s="60"/>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="67" t="s">
+      <c r="C156" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D156" s="61"/>
+      <c r="D156" s="60"/>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="67" t="s">
+      <c r="C157" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D157" s="61"/>
+      <c r="D157" s="60"/>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="67" t="s">
+      <c r="C158" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D158" s="61"/>
+      <c r="D158" s="60"/>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C159" s="67" t="s">
+      <c r="C159" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D159" s="61"/>
+      <c r="D159" s="60"/>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C160" s="67" t="s">
+      <c r="C160" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="D160" s="61"/>
+      <c r="D160" s="60"/>
     </row>
     <row r="161" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C161" s="67" t="s">
+      <c r="C161" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="61"/>
+      <c r="D161" s="60"/>
     </row>
     <row r="162" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C162" s="68" t="s">
+      <c r="C162" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="D162" s="61"/>
+      <c r="D162" s="60"/>
     </row>
     <row r="163" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C163" s="60" t="s">
+      <c r="C163" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D163" s="61"/>
+      <c r="D163" s="60"/>
     </row>
     <row r="164" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C164" s="60" t="s">
+      <c r="C164" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D164" s="61"/>
+      <c r="D164" s="60"/>
     </row>
     <row r="165" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C165" s="65" t="s">
+      <c r="C165" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="61"/>
+      <c r="D165" s="60"/>
     </row>
     <row r="166" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C166" s="66" t="s">
+      <c r="C166" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D166" s="61"/>
+      <c r="D166" s="60"/>
     </row>
     <row r="167" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C167" s="67" t="s">
+      <c r="C167" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="D167" s="61"/>
+      <c r="D167" s="60"/>
     </row>
     <row r="168" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C168" s="68" t="s">
+      <c r="C168" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D168" s="61"/>
+      <c r="D168" s="60"/>
     </row>
     <row r="169" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C169" s="60" t="s">
+      <c r="C169" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D169" s="61"/>
+      <c r="D169" s="60"/>
     </row>
     <row r="170" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C170" s="60" t="s">
+      <c r="C170" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="61"/>
+      <c r="D170" s="60"/>
     </row>
     <row r="171" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C171" s="65" t="s">
+      <c r="C171" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="D171" s="61"/>
+      <c r="D171" s="60"/>
     </row>
     <row r="172" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C172" s="66" t="s">
+      <c r="C172" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D172" s="61"/>
+      <c r="D172" s="60"/>
     </row>
     <row r="173" spans="3:101" x14ac:dyDescent="0.25">
-      <c r="C173" s="67" t="s">
+      <c r="C173" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D173" s="61"/>
+      <c r="D173" s="60"/>
       <c r="G173" t="str">
         <f>_xlfn.CONCAT(_xlfn.ANCHORARRAY(G174))</f>
         <v>AAFD0341FF41FCAAFD02034342AAFD0602400020203175AAFD090140003253494D505825AAFD080440000080000008C4AAFD02030302AAFD0203C3C2AAFD0602C100334850EEAAFD0901C000203133315620ADAAFD0225C1E6AAFD02038382</v>
       </c>
     </row>
     <row r="174" spans="3:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="70" t="s">
+      <c r="C174" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="71"/>
+      <c r="D174" s="70"/>
       <c r="G174" s="3" t="str" cm="1">
         <f t="array" ref="G174:CW174">TRANSPOSE(SUBSTITUTE(C80:C174,"0x",""))</f>
         <v>AA</v>
@@ -4585,10 +4674,10 @@
       <c r="H174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="I174" s="53" t="str">
+      <c r="I174" s="52" t="str">
         <v>03</v>
       </c>
-      <c r="J174" s="56" t="str">
+      <c r="J174" s="55" t="str">
         <v>41</v>
       </c>
       <c r="K174" s="5" t="str">
@@ -4606,10 +4695,10 @@
       <c r="O174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P174" s="53" t="str">
+      <c r="P174" s="52" t="str">
         <v>02</v>
       </c>
-      <c r="Q174" s="56" t="str">
+      <c r="Q174" s="55" t="str">
         <v>03</v>
       </c>
       <c r="R174" s="5" t="str">
@@ -4624,10 +4713,10 @@
       <c r="U174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="V174" s="53" t="str">
+      <c r="V174" s="52" t="str">
         <v>06</v>
       </c>
-      <c r="W174" s="56" t="str">
+      <c r="W174" s="55" t="str">
         <v>02</v>
       </c>
       <c r="X174" s="5" t="str">
@@ -4654,10 +4743,10 @@
       <c r="AE174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AF174" s="53" t="str">
+      <c r="AF174" s="52" t="str">
         <v>09</v>
       </c>
-      <c r="AG174" s="56" t="str">
+      <c r="AG174" s="55" t="str">
         <v>01</v>
       </c>
       <c r="AH174" s="5" t="str">
@@ -4693,10 +4782,10 @@
       <c r="AR174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AS174" s="53" t="str">
+      <c r="AS174" s="52" t="str">
         <v>08</v>
       </c>
-      <c r="AT174" s="56" t="str">
+      <c r="AT174" s="55" t="str">
         <v>04</v>
       </c>
       <c r="AU174" s="5" t="str">
@@ -4729,10 +4818,10 @@
       <c r="BD174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="BE174" s="53" t="str">
+      <c r="BE174" s="52" t="str">
         <v>02</v>
       </c>
-      <c r="BF174" s="56" t="str">
+      <c r="BF174" s="55" t="str">
         <v>03</v>
       </c>
       <c r="BG174" s="5" t="str">
@@ -4747,10 +4836,10 @@
       <c r="BJ174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="BK174" s="53" t="str">
+      <c r="BK174" s="52" t="str">
         <v>02</v>
       </c>
-      <c r="BL174" s="56" t="str">
+      <c r="BL174" s="55" t="str">
         <v>03</v>
       </c>
       <c r="BM174" s="5" t="str">
@@ -4765,10 +4854,10 @@
       <c r="BP174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="BQ174" s="53" t="str">
+      <c r="BQ174" s="52" t="str">
         <v>06</v>
       </c>
-      <c r="BR174" s="56" t="str">
+      <c r="BR174" s="55" t="str">
         <v>02</v>
       </c>
       <c r="BS174" s="5" t="str">
@@ -4795,10 +4884,10 @@
       <c r="BZ174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="CA174" s="53" t="str">
+      <c r="CA174" s="52" t="str">
         <v>09</v>
       </c>
-      <c r="CB174" s="56" t="str">
+      <c r="CB174" s="55" t="str">
         <v>01</v>
       </c>
       <c r="CC174" s="5" t="str">
@@ -4834,10 +4923,10 @@
       <c r="CM174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="CN174" s="53" t="str">
+      <c r="CN174" s="52" t="str">
         <v>02</v>
       </c>
-      <c r="CO174" s="56" t="str">
+      <c r="CO174" s="55" t="str">
         <v>25</v>
       </c>
       <c r="CP174" s="5" t="str">
@@ -4852,10 +4941,10 @@
       <c r="CS174" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="CT174" s="53" t="str">
+      <c r="CT174" s="52" t="str">
         <v>02</v>
       </c>
-      <c r="CU174" s="56" t="str">
+      <c r="CU174" s="55" t="str">
         <v>03</v>
       </c>
       <c r="CV174" s="5" t="str">
@@ -4866,7 +4955,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:DE1 C2:DE3 A2:B6 C4:N6 P4:DE8 A7:N8 A9:DE1048576">
+  <conditionalFormatting sqref="A1:DE1 C2:DE3 A2:B6 C4:N6 P4:DE8 A7:N8 A9:DE80 A81:F82 N81:DE82 A83:DE1048576">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
@@ -5066,7 +5155,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5085,7 +5174,7 @@
         <v>86</v>
       </c>
       <c r="C1" s="92"/>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="76" t="s">
         <v>174</v>
       </c>
       <c r="E1" s="51" t="s">
@@ -5142,7 +5231,7 @@
       <c r="C2" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E2" s="27" t="s">
@@ -5151,7 +5240,7 @@
       <c r="F2" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>188</v>
       </c>
       <c r="H2" s="18" t="s">
@@ -5185,7 +5274,7 @@
         <v>435</v>
       </c>
       <c r="R2" s="25"/>
-      <c r="S2" s="88" t="s">
+      <c r="S2" s="87" t="s">
         <v>420</v>
       </c>
       <c r="U2" t="str">
@@ -5203,7 +5292,7 @@
       <c r="C3" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E3" s="27" t="s">
@@ -5212,7 +5301,7 @@
       <c r="F3" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="75" t="s">
         <v>189</v>
       </c>
       <c r="H3" s="18" t="s">
@@ -5246,7 +5335,7 @@
         <v>436</v>
       </c>
       <c r="R3" s="25"/>
-      <c r="S3" s="82" t="s">
+      <c r="S3" s="81" t="s">
         <v>86</v>
       </c>
       <c r="U3" t="str">
@@ -5264,7 +5353,7 @@
       <c r="C4" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E4" s="27" t="s">
@@ -5276,10 +5365,10 @@
       <c r="G4" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H4" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="76" t="s">
+      <c r="H4" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="75" t="s">
         <v>230</v>
       </c>
       <c r="J4" s="18" t="s">
@@ -5307,7 +5396,7 @@
         <v>83</v>
       </c>
       <c r="R4" s="25"/>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="82" t="s">
         <v>425</v>
       </c>
       <c r="U4" t="str">
@@ -5325,7 +5414,7 @@
       <c r="C5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E5" s="27" t="s">
@@ -5352,13 +5441,13 @@
       <c r="L5" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="N5" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="O5" s="75" t="s">
+      <c r="N5" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="O5" s="74" t="s">
         <v>200</v>
       </c>
       <c r="P5" s="18" t="s">
@@ -5368,7 +5457,7 @@
         <v>187</v>
       </c>
       <c r="R5" s="25"/>
-      <c r="S5" s="84" t="s">
+      <c r="S5" s="83" t="s">
         <v>175</v>
       </c>
       <c r="U5" t="str">
@@ -5386,7 +5475,7 @@
       <c r="C6" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E6" s="27" t="s">
@@ -5413,13 +5502,13 @@
       <c r="L6" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="N6" s="75" t="s">
+      <c r="N6" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="75" t="s">
+      <c r="O6" s="74" t="s">
         <v>212</v>
       </c>
       <c r="P6" s="18" t="s">
@@ -5429,7 +5518,7 @@
         <v>329</v>
       </c>
       <c r="R6" s="25"/>
-      <c r="S6" s="85" t="s">
+      <c r="S6" s="84" t="s">
         <v>421</v>
       </c>
       <c r="U6" t="str">
@@ -5447,7 +5536,7 @@
       <c r="C7" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E7" s="27" t="s">
@@ -5465,13 +5554,13 @@
       <c r="I7" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="L7" s="75" t="s">
+      <c r="K7" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="74" t="s">
         <v>200</v>
       </c>
       <c r="M7" s="18" t="s">
@@ -5490,7 +5579,7 @@
         <v>212</v>
       </c>
       <c r="R7" s="25"/>
-      <c r="S7" s="86" t="s">
+      <c r="S7" s="85" t="s">
         <v>430</v>
       </c>
       <c r="U7" t="str">
@@ -5508,7 +5597,7 @@
       <c r="C8" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E8" s="27" t="s">
@@ -5526,13 +5615,13 @@
       <c r="I8" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="75" t="s">
+      <c r="L8" s="74" t="s">
         <v>212</v>
       </c>
       <c r="M8" s="18" t="s">
@@ -5551,7 +5640,7 @@
         <v>437</v>
       </c>
       <c r="R8" s="25"/>
-      <c r="S8" s="87" t="s">
+      <c r="S8" s="86" t="s">
         <v>424</v>
       </c>
       <c r="U8" t="str">
@@ -5569,7 +5658,7 @@
       <c r="C9" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E9" s="27" t="s">
@@ -5581,10 +5670,10 @@
       <c r="G9" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H9" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="76" t="s">
+      <c r="H9" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="75" t="s">
         <v>252</v>
       </c>
       <c r="J9" s="18" t="s">
@@ -5612,7 +5701,7 @@
         <v>80</v>
       </c>
       <c r="R9" s="25"/>
-      <c r="S9" s="90" t="s">
+      <c r="S9" s="89" t="s">
         <v>423</v>
       </c>
       <c r="U9" t="str">
@@ -5630,7 +5719,7 @@
       <c r="C10" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E10" s="27" t="s">
@@ -5642,10 +5731,10 @@
       <c r="G10" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H10" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I10" s="76" t="s">
+      <c r="H10" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="75" t="s">
         <v>317</v>
       </c>
       <c r="J10" s="18" t="s">
@@ -5673,11 +5762,11 @@
         <v>438</v>
       </c>
       <c r="R10" s="25"/>
-      <c r="S10" s="91" t="s">
+      <c r="S10" s="90" t="s">
         <v>431</v>
       </c>
       <c r="U10" t="str">
-        <f t="shared" ref="U10:U14" si="0">"bytearray([0x" &amp; _xlfn.TEXTJOIN(",0x", TRUE, H10:I10) &amp; "])"</f>
+        <f t="shared" ref="U10:U12" si="0">"bytearray([0x" &amp; _xlfn.TEXTJOIN(",0x", TRUE, H10:I10) &amp; "])"</f>
         <v>bytearray([0x00,0x22])</v>
       </c>
     </row>
@@ -5691,7 +5780,7 @@
       <c r="C11" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E11" s="27" t="s">
@@ -5703,10 +5792,10 @@
       <c r="G11" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H11" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="76" t="s">
+      <c r="H11" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="75" t="s">
         <v>190</v>
       </c>
       <c r="J11" s="18" t="s">
@@ -5750,7 +5839,7 @@
       <c r="C12" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E12" s="27" t="s">
@@ -5762,10 +5851,10 @@
       <c r="G12" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H12" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I12" s="76" t="s">
+      <c r="H12" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="75" t="s">
         <v>191</v>
       </c>
       <c r="J12" s="18" t="s">
@@ -5805,7 +5894,7 @@
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="27"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -5832,7 +5921,7 @@
       <c r="C14" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -5841,7 +5930,7 @@
       <c r="F14" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="75" t="s">
         <v>214</v>
       </c>
       <c r="H14" s="18" t="s">
@@ -5891,7 +5980,7 @@
       <c r="C15" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E15" s="27" t="s">
@@ -5900,7 +5989,7 @@
       <c r="F15" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="75" t="s">
         <v>327</v>
       </c>
       <c r="H15" s="18" t="s">
@@ -5950,7 +6039,7 @@
       <c r="C16" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E16" s="27" t="s">
@@ -5962,10 +6051,10 @@
       <c r="G16" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H16" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I16" s="76" t="s">
+      <c r="H16" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="75" t="s">
         <v>442</v>
       </c>
       <c r="J16" s="18" t="s">
@@ -6009,7 +6098,7 @@
       <c r="C17" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E17" s="27" t="s">
@@ -6036,13 +6125,13 @@
       <c r="L17" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="M17" s="76" t="s">
+      <c r="M17" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="N17" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="O17" s="75" t="s">
+      <c r="N17" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" s="74" t="s">
         <v>200</v>
       </c>
       <c r="P17" s="18" t="s">
@@ -6068,7 +6157,7 @@
       <c r="C18" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E18" s="27" t="s">
@@ -6095,13 +6184,13 @@
       <c r="L18" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="M18" s="76" t="s">
+      <c r="M18" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="N18" s="75" t="s">
+      <c r="N18" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="75" t="s">
+      <c r="O18" s="74" t="s">
         <v>212</v>
       </c>
       <c r="P18" s="18" t="s">
@@ -6127,7 +6216,7 @@
       <c r="C19" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E19" s="27" t="s">
@@ -6145,13 +6234,13 @@
       <c r="I19" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="K19" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="75" t="s">
+      <c r="K19" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="74" t="s">
         <v>200</v>
       </c>
       <c r="M19" s="18" t="s">
@@ -6186,7 +6275,7 @@
       <c r="C20" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -6204,13 +6293,13 @@
       <c r="I20" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="74" t="s">
         <v>212</v>
       </c>
       <c r="M20" s="18" t="s">
@@ -6245,7 +6334,7 @@
       <c r="C21" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E21" s="27" t="s">
@@ -6257,10 +6346,10 @@
       <c r="G21" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H21" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I21" s="76" t="s">
+      <c r="H21" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" s="75" t="s">
         <v>447</v>
       </c>
       <c r="J21" s="18" t="s">
@@ -6304,7 +6393,7 @@
       <c r="C22" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E22" s="27" t="s">
@@ -6316,10 +6405,10 @@
       <c r="G22" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H22" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="76" t="s">
+      <c r="H22" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="75" t="s">
         <v>437</v>
       </c>
       <c r="J22" s="18" t="s">
@@ -6363,7 +6452,7 @@
       <c r="C23" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E23" s="27" t="s">
@@ -6375,10 +6464,10 @@
       <c r="G23" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H23" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I23" s="76" t="s">
+      <c r="H23" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="75" t="s">
         <v>329</v>
       </c>
       <c r="J23" s="18" t="s">
@@ -6422,7 +6511,7 @@
       <c r="C24" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -6434,10 +6523,10 @@
       <c r="G24" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I24" s="76" t="s">
+      <c r="H24" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" s="75" t="s">
         <v>451</v>
       </c>
       <c r="J24" s="18" t="s">
@@ -6477,7 +6566,7 @@
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
-      <c r="D25" s="55"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="27"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -6504,7 +6593,7 @@
       <c r="C26" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E26" s="27" t="s">
@@ -6516,10 +6605,10 @@
       <c r="G26" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H26" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I26" s="76" t="s">
+      <c r="H26" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" s="75" t="s">
         <v>452</v>
       </c>
       <c r="J26" s="18" t="s">
@@ -6563,7 +6652,7 @@
       <c r="C27" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E27" s="27" t="s">
@@ -6575,10 +6664,10 @@
       <c r="G27" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H27" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="76" t="s">
+      <c r="H27" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="75" t="s">
         <v>453</v>
       </c>
       <c r="J27" s="18" t="s">
@@ -6622,7 +6711,7 @@
       <c r="C28" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="D28" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E28" s="27" t="s">
@@ -6634,10 +6723,10 @@
       <c r="G28" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H28" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I28" s="76" t="s">
+      <c r="H28" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" s="75" t="s">
         <v>324</v>
       </c>
       <c r="J28" s="18" t="s">
@@ -6681,7 +6770,7 @@
       <c r="C29" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E29" s="27" t="s">
@@ -6693,10 +6782,10 @@
       <c r="G29" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H29" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I29" s="76" t="s">
+      <c r="H29" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="75" t="s">
         <v>455</v>
       </c>
       <c r="J29" s="18" t="s">
@@ -6740,7 +6829,7 @@
       <c r="C30" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E30" s="27" t="s">
@@ -6752,10 +6841,10 @@
       <c r="G30" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H30" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I30" s="76" t="s">
+      <c r="H30" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" s="75" t="s">
         <v>457</v>
       </c>
       <c r="J30" s="18" t="s">
@@ -6799,7 +6888,7 @@
       <c r="C31" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E31" s="27" t="s">
@@ -6811,10 +6900,10 @@
       <c r="G31" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H31" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I31" s="76" t="s">
+      <c r="H31" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" s="75" t="s">
         <v>459</v>
       </c>
       <c r="J31" s="18" t="s">
@@ -6858,7 +6947,7 @@
       <c r="C32" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E32" s="27" t="s">
@@ -6870,10 +6959,10 @@
       <c r="G32" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H32" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I32" s="76" t="s">
+      <c r="H32" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="75" t="s">
         <v>200</v>
       </c>
       <c r="J32" s="18" t="s">
@@ -6917,7 +7006,7 @@
       <c r="C33" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E33" s="27" t="s">
@@ -6929,10 +7018,10 @@
       <c r="G33" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H33" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I33" s="76" t="s">
+      <c r="H33" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33" s="75" t="s">
         <v>188</v>
       </c>
       <c r="J33" s="18" t="s">
@@ -6976,7 +7065,7 @@
       <c r="C34" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -6988,10 +7077,10 @@
       <c r="G34" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H34" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I34" s="76" t="s">
+      <c r="H34" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="75" t="s">
         <v>189</v>
       </c>
       <c r="J34" s="18" t="s">
@@ -7035,7 +7124,7 @@
       <c r="C35" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E35" s="27" t="s">
@@ -7047,10 +7136,10 @@
       <c r="G35" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H35" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I35" s="76" t="s">
+      <c r="H35" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="75" t="s">
         <v>212</v>
       </c>
       <c r="J35" s="18" t="s">
@@ -7094,7 +7183,7 @@
       <c r="C36" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E36" s="27" t="s">
@@ -7106,10 +7195,10 @@
       <c r="G36" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H36" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="76" t="s">
+      <c r="H36" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="75" t="s">
         <v>220</v>
       </c>
       <c r="J36" s="18" t="s">
@@ -7153,7 +7242,7 @@
       <c r="C37" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E37" s="27" t="s">
@@ -7165,10 +7254,10 @@
       <c r="G37" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H37" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="76" t="s">
+      <c r="H37" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="75" t="s">
         <v>254</v>
       </c>
       <c r="J37" s="18" t="s">
@@ -7212,7 +7301,7 @@
       <c r="C38" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E38" s="27" t="s">
@@ -7224,10 +7313,10 @@
       <c r="G38" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H38" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38" s="76" t="s">
+      <c r="H38" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="75" t="s">
         <v>199</v>
       </c>
       <c r="J38" s="18" t="s">
@@ -7271,7 +7360,7 @@
       <c r="C39" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E39" s="27" t="s">
@@ -7283,10 +7372,10 @@
       <c r="G39" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H39" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" s="76" t="s">
+      <c r="H39" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="75" t="s">
         <v>355</v>
       </c>
       <c r="J39" s="18" t="s">
@@ -7330,7 +7419,7 @@
       <c r="C40" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E40" s="27" t="s">
@@ -7342,10 +7431,10 @@
       <c r="G40" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H40" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I40" s="76" t="s">
+      <c r="H40" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="75" t="s">
         <v>219</v>
       </c>
       <c r="J40" s="18" t="s">
@@ -7389,7 +7478,7 @@
       <c r="C41" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E41" s="27" t="s">
@@ -7401,10 +7490,10 @@
       <c r="G41" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H41" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I41" s="76" t="s">
+      <c r="H41" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="75" t="s">
         <v>187</v>
       </c>
       <c r="J41" s="18" t="s">
@@ -7448,7 +7537,7 @@
       <c r="C42" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E42" s="27" t="s">
@@ -7460,10 +7549,10 @@
       <c r="G42" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H42" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I42" s="76" t="s">
+      <c r="H42" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" s="75" t="s">
         <v>303</v>
       </c>
       <c r="J42" s="18" t="s">
@@ -7507,7 +7596,7 @@
       <c r="C43" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E43" s="27" t="s">
@@ -7519,10 +7608,10 @@
       <c r="G43" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H43" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I43" s="76" t="s">
+      <c r="H43" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="75" t="s">
         <v>234</v>
       </c>
       <c r="J43" s="18" t="s">
@@ -7566,7 +7655,7 @@
       <c r="C44" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E44" s="27" t="s">
@@ -7578,10 +7667,10 @@
       <c r="G44" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H44" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I44" s="76" t="s">
+      <c r="H44" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="75" t="s">
         <v>215</v>
       </c>
       <c r="J44" s="18" t="s">
@@ -7625,7 +7714,7 @@
       <c r="C45" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E45" s="27" t="s">
@@ -7637,10 +7726,10 @@
       <c r="G45" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H45" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="76" t="s">
+      <c r="H45" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="75" t="s">
         <v>216</v>
       </c>
       <c r="J45" s="18" t="s">
@@ -7684,7 +7773,7 @@
       <c r="C46" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -7696,10 +7785,10 @@
       <c r="G46" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H46" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I46" s="76" t="s">
+      <c r="H46" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="75" t="s">
         <v>251</v>
       </c>
       <c r="J46" s="18" t="s">
@@ -7743,7 +7832,7 @@
       <c r="C47" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="53" t="s">
+      <c r="D47" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E47" s="27" t="s">
@@ -7755,10 +7844,10 @@
       <c r="G47" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H47" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I47" s="76" t="s">
+      <c r="H47" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="75" t="s">
         <v>302</v>
       </c>
       <c r="J47" s="18" t="s">
@@ -7802,13 +7891,13 @@
       <c r="C48" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="F48" s="76" t="s">
+      <c r="F48" s="75" t="s">
         <v>200</v>
       </c>
       <c r="G48" s="18" t="s">
@@ -7857,7 +7946,7 @@
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
-      <c r="D49" s="55"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="27"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -7884,7 +7973,7 @@
       <c r="C50" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E50" s="27" t="s">
@@ -7926,8 +8015,8 @@
       <c r="Q50" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="R50" s="97"/>
-      <c r="S50" s="97"/>
+      <c r="R50" s="91"/>
+      <c r="S50" s="91"/>
       <c r="U50" t="str">
         <f>"bytearray([0x" &amp; _xlfn.TEXTJOIN(",0x", TRUE, E50:P50) &amp; "])"</f>
         <v>bytearray([0x84,0xFF,0xFF,0xFF,0xFF,0x81,0xFF,0xFF,0x82,0xFF,0xFF,0x00])</v>
@@ -7943,7 +8032,7 @@
       <c r="C51" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="53" t="s">
+      <c r="D51" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E51" s="27" t="s">
@@ -7955,10 +8044,10 @@
       <c r="G51" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H51" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I51" s="76" t="s">
+      <c r="H51" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="75" t="s">
         <v>320</v>
       </c>
       <c r="J51" s="18" t="s">
@@ -8002,7 +8091,7 @@
       <c r="C52" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E52" s="27" t="s">
@@ -8014,10 +8103,10 @@
       <c r="G52" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H52" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I52" s="76" t="s">
+      <c r="H52" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" s="75" t="s">
         <v>450</v>
       </c>
       <c r="J52" s="18" t="s">
@@ -8047,7 +8136,7 @@
       <c r="R52" s="25"/>
       <c r="S52" s="25"/>
       <c r="U52" t="str">
-        <f t="shared" ref="U51:U63" si="2">"bytearray([0x" &amp; _xlfn.TEXTJOIN(",0x", TRUE, H52:I52) &amp; "])"</f>
+        <f t="shared" ref="U52:U63" si="2">"bytearray([0x" &amp; _xlfn.TEXTJOIN(",0x", TRUE, H52:I52) &amp; "])"</f>
         <v>bytearray([0x00,0x28])</v>
       </c>
     </row>
@@ -8061,7 +8150,7 @@
       <c r="C53" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="53" t="s">
+      <c r="D53" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E53" s="27" t="s">
@@ -8073,10 +8162,10 @@
       <c r="G53" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I53" s="76" t="s">
+      <c r="H53" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="75" t="s">
         <v>449</v>
       </c>
       <c r="J53" s="18" t="s">
@@ -8120,7 +8209,7 @@
       <c r="C54" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E54" s="27" t="s">
@@ -8132,10 +8221,10 @@
       <c r="G54" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H54" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I54" s="76" t="s">
+      <c r="H54" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" s="75" t="s">
         <v>80</v>
       </c>
       <c r="J54" s="18" t="s">
@@ -8179,7 +8268,7 @@
       <c r="C55" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E55" s="27" t="s">
@@ -8191,10 +8280,10 @@
       <c r="G55" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H55" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I55" s="76" t="s">
+      <c r="H55" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" s="75" t="s">
         <v>81</v>
       </c>
       <c r="J55" s="18" t="s">
@@ -8238,7 +8327,7 @@
       <c r="C56" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E56" s="27" t="s">
@@ -8250,10 +8339,10 @@
       <c r="G56" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H56" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I56" s="76" t="s">
+      <c r="H56" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I56" s="75" t="s">
         <v>82</v>
       </c>
       <c r="J56" s="18" t="s">
@@ -8297,7 +8386,7 @@
       <c r="C57" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E57" s="27" t="s">
@@ -8309,10 +8398,10 @@
       <c r="G57" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H57" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I57" s="76" t="s">
+      <c r="H57" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" s="75" t="s">
         <v>192</v>
       </c>
       <c r="J57" s="18" t="s">
@@ -8356,7 +8445,7 @@
       <c r="C58" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E58" s="27" t="s">
@@ -8368,10 +8457,10 @@
       <c r="G58" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H58" s="75" t="s">
+      <c r="H58" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I58" s="76" t="s">
+      <c r="I58" s="75" t="s">
         <v>250</v>
       </c>
       <c r="J58" s="18" t="s">
@@ -8415,7 +8504,7 @@
       <c r="C59" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E59" s="27" t="s">
@@ -8427,10 +8516,10 @@
       <c r="G59" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H59" s="75" t="s">
+      <c r="H59" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I59" s="76" t="s">
+      <c r="I59" s="75" t="s">
         <v>230</v>
       </c>
       <c r="J59" s="18" t="s">
@@ -8474,7 +8563,7 @@
       <c r="C60" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E60" s="27" t="s">
@@ -8486,10 +8575,10 @@
       <c r="G60" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H60" s="75" t="s">
+      <c r="H60" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I60" s="76" t="s">
+      <c r="I60" s="75" t="s">
         <v>442</v>
       </c>
       <c r="J60" s="18" t="s">
@@ -8533,7 +8622,7 @@
       <c r="C61" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E61" s="27" t="s">
@@ -8545,10 +8634,10 @@
       <c r="G61" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H61" s="75" t="s">
+      <c r="H61" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I61" s="76" t="s">
+      <c r="I61" s="75" t="s">
         <v>190</v>
       </c>
       <c r="J61" s="18" t="s">
@@ -8592,7 +8681,7 @@
       <c r="C62" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E62" s="27" t="s">
@@ -8604,10 +8693,10 @@
       <c r="G62" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H62" s="75" t="s">
+      <c r="H62" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I62" s="76" t="s">
+      <c r="I62" s="75" t="s">
         <v>191</v>
       </c>
       <c r="J62" s="18" t="s">
@@ -8651,7 +8740,7 @@
       <c r="C63" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E63" s="27" t="s">
@@ -8663,10 +8752,10 @@
       <c r="G63" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H63" s="75" t="s">
+      <c r="H63" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I63" s="76" t="s">
+      <c r="I63" s="75" t="s">
         <v>451</v>
       </c>
       <c r="J63" s="18" t="s">
@@ -8996,10 +9085,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A0B156-B528-431C-B24E-1CA04DF6378E}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9029,13 +9118,13 @@
       <c r="C1" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>174</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="77" t="s">
         <v>197</v>
       </c>
       <c r="G1" s="24" t="s">
@@ -9073,38 +9162,38 @@
       <c r="C2" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>187</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="74" t="s">
         <v>356</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>255</v>
       </c>
       <c r="N2" s="30"/>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="87" t="s">
         <v>420</v>
       </c>
       <c r="R2" s="29" t="s">
@@ -9121,38 +9210,38 @@
       <c r="C3" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>187</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="M3" s="75">
+      <c r="M3" s="74">
         <v>20</v>
       </c>
       <c r="N3" s="30"/>
-      <c r="P3" s="82" t="s">
+      <c r="P3" s="81" t="s">
         <v>86</v>
       </c>
       <c r="R3" s="28" t="s">
@@ -9169,32 +9258,32 @@
       <c r="C4" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>199</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="G4" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="74" t="s">
         <v>256</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="30"/>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="82" t="s">
         <v>425</v>
       </c>
       <c r="R4" s="28" t="s">
@@ -9211,32 +9300,32 @@
       <c r="C5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>199</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="74" t="s">
         <v>201</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="30"/>
-      <c r="P5" s="84" t="s">
+      <c r="P5" s="83" t="s">
         <v>175</v>
       </c>
       <c r="R5" s="40" t="s">
@@ -9253,13 +9342,13 @@
       <c r="C6" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="75" t="s">
         <v>241</v>
       </c>
       <c r="G6" s="18"/>
@@ -9270,7 +9359,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="30"/>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="84" t="s">
         <v>421</v>
       </c>
     </row>
@@ -9284,13 +9373,13 @@
       <c r="C7" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="75" t="s">
         <v>242</v>
       </c>
       <c r="G7" s="18"/>
@@ -9301,12 +9390,12 @@
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="30"/>
-      <c r="P7" s="86" t="s">
+      <c r="P7" s="85" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>296</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -9315,13 +9404,13 @@
       <c r="C8" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="75" t="s">
         <v>293</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -9339,17 +9428,17 @@
       <c r="K8" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="78" t="s">
         <v>200</v>
       </c>
       <c r="M8" s="18"/>
       <c r="N8" s="30"/>
-      <c r="P8" s="87" t="s">
+      <c r="P8" s="86" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="78" t="s">
         <v>297</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -9358,13 +9447,13 @@
       <c r="C9" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="75" t="s">
         <v>293</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -9382,17 +9471,17 @@
       <c r="K9" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="78" t="s">
         <v>213</v>
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="30"/>
-      <c r="P9" s="90" t="s">
+      <c r="P9" s="89" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="78" t="s">
         <v>294</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -9401,19 +9490,19 @@
       <c r="C10" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="75" t="s">
         <v>293</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="78" t="s">
         <v>200</v>
       </c>
       <c r="I10" s="18" t="s">
@@ -9430,12 +9519,12 @@
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="30"/>
-      <c r="P10" s="91" t="s">
+      <c r="P10" s="90" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="78" t="s">
         <v>295</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -9444,19 +9533,19 @@
       <c r="C11" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="75" t="s">
         <v>293</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="78" t="s">
         <v>189</v>
       </c>
       <c r="I11" s="18" t="s">
@@ -9476,7 +9565,7 @@
       <c r="R11" s="39"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>226</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -9485,13 +9574,13 @@
       <c r="C12" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -9506,7 +9595,7 @@
       <c r="J12" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="78" t="s">
         <v>200</v>
       </c>
       <c r="L12" s="18" t="s">
@@ -9514,12 +9603,12 @@
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="30"/>
-      <c r="R12" s="81" t="s">
+      <c r="R12" s="80" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>227</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -9528,13 +9617,13 @@
       <c r="C13" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -9549,7 +9638,7 @@
       <c r="J13" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="78" t="s">
         <v>189</v>
       </c>
       <c r="L13" s="18" t="s">
@@ -9557,12 +9646,12 @@
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="30"/>
-      <c r="R13" s="80" t="s">
+      <c r="R13" s="79" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="78" t="s">
         <v>222</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -9571,13 +9660,13 @@
       <c r="C14" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -9589,7 +9678,7 @@
       <c r="I14" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="79" t="s">
+      <c r="J14" s="78" t="s">
         <v>200</v>
       </c>
       <c r="K14" s="18" t="s">
@@ -9600,12 +9689,12 @@
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="30"/>
-      <c r="R14" s="80" t="s">
+      <c r="R14" s="79" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="78" t="s">
         <v>221</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -9614,13 +9703,13 @@
       <c r="C15" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -9632,7 +9721,7 @@
       <c r="I15" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="78" t="s">
         <v>192</v>
       </c>
       <c r="K15" s="18" t="s">
@@ -9643,12 +9732,12 @@
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="30"/>
-      <c r="R15" s="80" t="s">
+      <c r="R15" s="79" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>224</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -9657,13 +9746,13 @@
       <c r="C16" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F16" s="76" t="s">
+      <c r="F16" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -9675,7 +9764,7 @@
       <c r="I16" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="J16" s="79" t="s">
+      <c r="J16" s="78" t="s">
         <v>200</v>
       </c>
       <c r="K16" s="18" t="s">
@@ -9688,7 +9777,7 @@
       <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="78" t="s">
         <v>225</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -9697,13 +9786,13 @@
       <c r="C17" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="F17" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -9715,7 +9804,7 @@
       <c r="I17" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="79" t="s">
+      <c r="J17" s="78" t="s">
         <v>223</v>
       </c>
       <c r="K17" s="18" t="s">
@@ -9728,7 +9817,7 @@
       <c r="N17" s="30"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="78" t="s">
         <v>260</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -9737,13 +9826,13 @@
       <c r="C18" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G18" s="18" t="s">
@@ -9758,7 +9847,7 @@
       <c r="J18" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="K18" s="78" t="s">
         <v>200</v>
       </c>
       <c r="L18" s="18" t="s">
@@ -9769,7 +9858,7 @@
       <c r="R18" s="39"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="78" t="s">
         <v>261</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -9778,13 +9867,13 @@
       <c r="C19" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="76" t="s">
+      <c r="F19" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G19" s="18" t="s">
@@ -9799,7 +9888,7 @@
       <c r="J19" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="78" t="s">
         <v>192</v>
       </c>
       <c r="L19" s="18" t="s">
@@ -9809,7 +9898,7 @@
       <c r="N19" s="30"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="78" t="s">
         <v>280</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -9818,13 +9907,13 @@
       <c r="C20" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G20" s="18" t="s">
@@ -9836,7 +9925,7 @@
       <c r="I20" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="J20" s="79" t="s">
+      <c r="J20" s="78" t="s">
         <v>189</v>
       </c>
       <c r="K20" s="18" t="s">
@@ -9849,7 +9938,7 @@
       <c r="N20" s="30"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="78" t="s">
         <v>277</v>
       </c>
       <c r="B21" s="26" t="s">
@@ -9858,13 +9947,13 @@
       <c r="C21" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="54" t="s">
         <v>219</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G21" s="18" t="s">
@@ -9876,7 +9965,7 @@
       <c r="I21" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="J21" s="79" t="s">
+      <c r="J21" s="78" t="s">
         <v>219</v>
       </c>
       <c r="K21" s="18" t="s">
@@ -9899,13 +9988,13 @@
       <c r="C22" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="76" t="s">
+      <c r="F22" s="75" t="s">
         <v>200</v>
       </c>
       <c r="G22" s="18"/>
@@ -9927,13 +10016,13 @@
       <c r="C23" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="75" t="s">
         <v>188</v>
       </c>
       <c r="G23" s="18"/>
@@ -9944,6 +10033,9 @@
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="30"/>
+      <c r="R23" s="25" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
@@ -9955,17 +10047,17 @@
       <c r="C24" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="75" t="s">
         <v>213</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="H24" s="79" t="s">
+      <c r="H24" s="78" t="s">
         <v>200</v>
       </c>
       <c r="I24" s="18"/>
@@ -9974,6 +10066,9 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="30"/>
+      <c r="R24" s="25" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
@@ -9985,17 +10080,17 @@
       <c r="C25" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="75" t="s">
         <v>214</v>
       </c>
       <c r="G25" s="18"/>
-      <c r="H25" s="79" t="s">
+      <c r="H25" s="78" t="s">
         <v>192</v>
       </c>
       <c r="I25" s="18"/>
@@ -10006,7 +10101,7 @@
       <c r="N25" s="30"/>
       <c r="R25" s="39"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>290</v>
       </c>
@@ -10016,13 +10111,13 @@
       <c r="C26" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="75" t="s">
         <v>200</v>
       </c>
       <c r="G26" s="18"/>
@@ -10033,6 +10128,9 @@
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="30"/>
+      <c r="R26" s="28" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
@@ -10044,17 +10142,17 @@
       <c r="C27" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="76" t="s">
+      <c r="F27" s="75" t="s">
         <v>188</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="78" t="s">
         <v>324</v>
       </c>
       <c r="I27" s="18"/>
@@ -10063,6 +10161,9 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="30"/>
+      <c r="R27" s="25" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
@@ -10074,13 +10175,13 @@
       <c r="C28" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E28" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="F28" s="76" t="s">
+      <c r="F28" s="75" t="s">
         <v>252</v>
       </c>
       <c r="G28" s="18"/>
@@ -10103,13 +10204,13 @@
       <c r="C29" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="75" t="s">
         <v>200</v>
       </c>
       <c r="G29" s="18"/>
@@ -10132,13 +10233,13 @@
       <c r="C30" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E30" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="75" t="s">
         <v>188</v>
       </c>
       <c r="G30" s="18"/>
@@ -10161,18 +10262,18 @@
       <c r="C31" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E31" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="79" t="s">
+      <c r="I31" s="78" t="s">
         <v>200</v>
       </c>
       <c r="J31" s="18"/>
@@ -10191,18 +10292,18 @@
       <c r="C32" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="F32" s="76" t="s">
+      <c r="F32" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="79" t="s">
+      <c r="I32" s="78" t="s">
         <v>213</v>
       </c>
       <c r="J32" s="18"/>
@@ -10211,7 +10312,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>304</v>
       </c>
@@ -10221,13 +10322,13 @@
       <c r="C33" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E33" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="F33" s="76" t="s">
+      <c r="F33" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G33" s="18"/>
@@ -10239,7 +10340,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="30"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>305</v>
       </c>
@@ -10249,13 +10350,13 @@
       <c r="C34" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E34" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="F34" s="76" t="s">
+      <c r="F34" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G34" s="18"/>
@@ -10267,7 +10368,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="30"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>307</v>
       </c>
@@ -10277,13 +10378,13 @@
       <c r="C35" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="F35" s="76" t="s">
+      <c r="F35" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G35" s="18"/>
@@ -10295,7 +10396,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="30"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>308</v>
       </c>
@@ -10305,19 +10406,19 @@
       <c r="C36" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E36" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="F36" s="76" t="s">
+      <c r="F36" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="79" t="s">
-        <v>338</v>
+      <c r="I36" s="78" t="s">
+        <v>219</v>
       </c>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
@@ -10325,7 +10426,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="30"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>309</v>
       </c>
@@ -10335,13 +10436,13 @@
       <c r="C37" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="F37" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G37" s="18"/>
@@ -10353,7 +10454,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="30"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>310</v>
       </c>
@@ -10363,19 +10464,19 @@
       <c r="C38" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="79" t="s">
-        <v>327</v>
+      <c r="I38" s="78" t="s">
+        <v>189</v>
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -10383,7 +10484,7 @@
       <c r="M38" s="18"/>
       <c r="N38" s="30"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>312</v>
       </c>
@@ -10393,13 +10494,13 @@
       <c r="C39" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="F39" s="76" t="s">
+      <c r="F39" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G39" s="18"/>
@@ -10411,7 +10512,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="30"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>311</v>
       </c>
@@ -10421,13 +10522,13 @@
       <c r="C40" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F40" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G40" s="18"/>
@@ -10438,9 +10539,10 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="30"/>
-      <c r="R40" s="52"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R40" s="97"/>
+      <c r="S40" s="97"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>222</v>
       </c>
@@ -10450,13 +10552,13 @@
       <c r="C41" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E41" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="F41" s="76" t="s">
+      <c r="F41" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G41" s="18"/>
@@ -10468,7 +10570,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="30"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>221</v>
       </c>
@@ -10478,13 +10580,13 @@
       <c r="C42" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E42" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="F42" s="76" t="s">
+      <c r="F42" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G42" s="18"/>
@@ -10496,7 +10598,7 @@
       <c r="M42" s="18"/>
       <c r="N42" s="30"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>276</v>
       </c>
@@ -10506,13 +10608,13 @@
       <c r="C43" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F43" s="76" t="s">
+      <c r="F43" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G43" s="18"/>
@@ -10524,7 +10626,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="30"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>277</v>
       </c>
@@ -10534,27 +10636,25 @@
       <c r="C44" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E44" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="F44" s="76" t="s">
+      <c r="F44" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
-      <c r="J44" s="79" t="s">
-        <v>219</v>
-      </c>
+      <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="30"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>275</v>
       </c>
@@ -10564,13 +10664,13 @@
       <c r="C45" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E45" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="F45" s="76" t="s">
+      <c r="F45" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G45" s="18"/>
@@ -10582,7 +10682,7 @@
       <c r="M45" s="18"/>
       <c r="N45" s="30"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>274</v>
       </c>
@@ -10592,27 +10692,25 @@
       <c r="C46" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E46" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="F46" s="76" t="s">
+      <c r="F46" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
-      <c r="J46" s="79" t="s">
-        <v>189</v>
-      </c>
+      <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="30"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>283</v>
       </c>
@@ -10622,13 +10720,13 @@
       <c r="C47" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E47" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="F47" s="76" t="s">
+      <c r="F47" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G47" s="18"/>
@@ -10640,7 +10738,7 @@
       <c r="M47" s="18"/>
       <c r="N47" s="30"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>282</v>
       </c>
@@ -10650,13 +10748,13 @@
       <c r="C48" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="F48" s="76" t="s">
+      <c r="F48" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G48" s="18"/>
@@ -10678,13 +10776,13 @@
       <c r="C49" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="F49" s="76" t="s">
+      <c r="F49" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G49" s="18"/>
@@ -10706,16 +10804,18 @@
       <c r="C50" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="F50" s="76" t="s">
+      <c r="F50" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="G50" s="18"/>
+      <c r="G50" s="78" t="s">
+        <v>483</v>
+      </c>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
@@ -10734,13 +10834,13 @@
       <c r="C51" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="F51" s="76" t="s">
+      <c r="F51" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G51" s="18"/>
@@ -10762,13 +10862,13 @@
       <c r="C52" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E52" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="F52" s="76" t="s">
+      <c r="F52" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G52" s="18"/>
@@ -10790,13 +10890,13 @@
       <c r="C53" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E53" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="F53" s="76" t="s">
+      <c r="F53" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G53" s="18"/>
@@ -10818,20 +10918,20 @@
       <c r="C54" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E54" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="F54" s="76" t="s">
+      <c r="F54" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
-      <c r="K54" s="79" t="s">
+      <c r="K54" s="78" t="s">
         <v>219</v>
       </c>
       <c r="L54" s="18"/>
@@ -10848,13 +10948,13 @@
       <c r="C55" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="76" t="s">
+      <c r="F55" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G55" s="18"/>
@@ -10876,13 +10976,13 @@
       <c r="C56" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="76" t="s">
+      <c r="F56" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G56" s="18"/>
@@ -10904,13 +11004,13 @@
       <c r="C57" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="76" t="s">
+      <c r="F57" s="75" t="s">
         <v>200</v>
       </c>
       <c r="G57" s="18"/>
@@ -10932,13 +11032,13 @@
       <c r="C58" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="F58" s="76" t="s">
+      <c r="F58" s="75" t="s">
         <v>188</v>
       </c>
       <c r="G58" s="18"/>
@@ -10960,13 +11060,13 @@
       <c r="C59" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E59" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="F59" s="76" t="s">
+      <c r="F59" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G59" s="18"/>
@@ -10988,13 +11088,13 @@
       <c r="C60" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E60" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="F60" s="76" t="s">
+      <c r="F60" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G60" s="18"/>
@@ -11016,13 +11116,13 @@
       <c r="C61" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F61" s="76" t="s">
+      <c r="F61" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G61" s="18"/>
@@ -11044,13 +11144,13 @@
       <c r="C62" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="76" t="s">
+      <c r="F62" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G62" s="18"/>
@@ -11058,7 +11158,7 @@
       <c r="I62" s="18"/>
       <c r="J62" s="18"/>
       <c r="K62" s="18"/>
-      <c r="L62" s="79" t="s">
+      <c r="L62" s="78" t="s">
         <v>219</v>
       </c>
       <c r="M62" s="18"/>
@@ -11074,13 +11174,13 @@
       <c r="C63" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F63" s="76" t="s">
+      <c r="F63" s="75" t="s">
         <v>235</v>
       </c>
       <c r="G63" s="18"/>
@@ -11088,7 +11188,7 @@
       <c r="I63" s="18"/>
       <c r="J63" s="18"/>
       <c r="K63" s="18"/>
-      <c r="L63" s="79" t="s">
+      <c r="L63" s="78" t="s">
         <v>337</v>
       </c>
       <c r="M63" s="18"/>
@@ -11104,13 +11204,13 @@
       <c r="C64" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="76" t="s">
+      <c r="F64" s="75" t="s">
         <v>236</v>
       </c>
       <c r="G64" s="18"/>
@@ -11118,11 +11218,11 @@
       <c r="I64" s="18"/>
       <c r="J64" s="18"/>
       <c r="K64" s="18"/>
-      <c r="L64" s="79" t="s">
+      <c r="L64" s="78" t="s">
         <v>189</v>
       </c>
       <c r="M64" s="18"/>
-      <c r="N64" s="89"/>
+      <c r="N64" s="88"/>
       <c r="O64" s="20"/>
       <c r="Q64" s="20"/>
     </row>
@@ -11136,13 +11236,13 @@
       <c r="C65" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F65" s="76" t="s">
+      <c r="F65" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G65" s="18"/>
@@ -11152,7 +11252,7 @@
       <c r="K65" s="18"/>
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
-      <c r="N65" s="89"/>
+      <c r="N65" s="88"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
       <c r="Q65" s="20"/>
@@ -11167,13 +11267,13 @@
       <c r="C66" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F66" s="76" t="s">
+      <c r="F66" s="75" t="s">
         <v>233</v>
       </c>
       <c r="G66" s="18"/>
@@ -11196,13 +11296,13 @@
       <c r="C67" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="F67" s="76" t="s">
+      <c r="F67" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G67" s="18"/>
@@ -11224,13 +11324,13 @@
       <c r="C68" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E68" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="F68" s="76" t="s">
+      <c r="F68" s="75" t="s">
         <v>233</v>
       </c>
       <c r="G68" s="18"/>
@@ -11252,13 +11352,13 @@
       <c r="C69" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="F69" s="76" t="s">
+      <c r="F69" s="75" t="s">
         <v>229</v>
       </c>
       <c r="G69" s="18"/>
@@ -11280,13 +11380,13 @@
       <c r="C70" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E70" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="F70" s="76" t="s">
+      <c r="F70" s="75" t="s">
         <v>233</v>
       </c>
       <c r="G70" s="18"/>
@@ -11646,7 +11746,7 @@
       <c r="C2" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="D2" s="53" t="str">
+      <c r="D2" s="52" t="str">
         <v>02</v>
       </c>
       <c r="E2" s="3" t="str">
@@ -11664,7 +11764,7 @@
       <c r="I2" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="J2" s="53" t="str">
+      <c r="J2" s="52" t="str">
         <v>02</v>
       </c>
       <c r="K2" s="3" t="str">
@@ -11682,7 +11782,7 @@
       <c r="O2" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P2" s="53" t="str">
+      <c r="P2" s="52" t="str">
         <v>09</v>
       </c>
       <c r="Q2" s="3" t="str">
@@ -11721,7 +11821,7 @@
       <c r="AB2" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AC2" s="53" t="str">
+      <c r="AC2" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AD2" s="3" t="str">
@@ -11739,7 +11839,7 @@
       <c r="AH2" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AI2" s="53" t="str">
+      <c r="AI2" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AJ2" s="5" t="str">
@@ -11757,7 +11857,7 @@
       <c r="AN2" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AO2" s="53" t="str">
+      <c r="AO2" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AP2" s="5" t="str">
@@ -11781,7 +11881,7 @@
       <c r="C3" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="D3" s="53" t="str">
+      <c r="D3" s="52" t="str">
         <v>02</v>
       </c>
       <c r="E3" s="3" t="str">
@@ -11799,7 +11899,7 @@
       <c r="I3" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="J3" s="53" t="str">
+      <c r="J3" s="52" t="str">
         <v>02</v>
       </c>
       <c r="K3" s="3" t="str">
@@ -11817,7 +11917,7 @@
       <c r="O3" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P3" s="53" t="str">
+      <c r="P3" s="52" t="str">
         <v>09</v>
       </c>
       <c r="Q3" s="3" t="str">
@@ -11856,7 +11956,7 @@
       <c r="AB3" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AC3" s="53" t="str">
+      <c r="AC3" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AD3" s="3" t="str">
@@ -11874,7 +11974,7 @@
       <c r="AH3" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AI3" s="53" t="str">
+      <c r="AI3" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AJ3" s="5" t="str">
@@ -11892,7 +11992,7 @@
       <c r="AN3" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AO3" s="53" t="str">
+      <c r="AO3" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AP3" s="5" t="str">
@@ -11916,7 +12016,7 @@
       <c r="C4" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="D4" s="53" t="str">
+      <c r="D4" s="52" t="str">
         <v>02</v>
       </c>
       <c r="E4" s="3" t="str">
@@ -11934,7 +12034,7 @@
       <c r="I4" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="J4" s="53" t="str">
+      <c r="J4" s="52" t="str">
         <v>02</v>
       </c>
       <c r="K4" s="3" t="str">
@@ -11952,7 +12052,7 @@
       <c r="O4" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P4" s="53" t="str">
+      <c r="P4" s="52" t="str">
         <v>09</v>
       </c>
       <c r="Q4" s="3" t="str">
@@ -11991,7 +12091,7 @@
       <c r="AB4" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AC4" s="53" t="str">
+      <c r="AC4" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AD4" s="3" t="str">
@@ -12009,7 +12109,7 @@
       <c r="AH4" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AI4" s="53" t="str">
+      <c r="AI4" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AJ4" s="5" t="str">
@@ -12027,7 +12127,7 @@
       <c r="AN4" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AO4" s="53" t="str">
+      <c r="AO4" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AP4" s="5" t="str">
@@ -12051,7 +12151,7 @@
       <c r="C5" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="D5" s="53" t="str">
+      <c r="D5" s="52" t="str">
         <v>02</v>
       </c>
       <c r="E5" s="3" t="str">
@@ -12069,7 +12169,7 @@
       <c r="I5" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="J5" s="53" t="str">
+      <c r="J5" s="52" t="str">
         <v>02</v>
       </c>
       <c r="K5" s="3" t="str">
@@ -12087,7 +12187,7 @@
       <c r="O5" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P5" s="53" t="str">
+      <c r="P5" s="52" t="str">
         <v>09</v>
       </c>
       <c r="Q5" s="3" t="str">
@@ -12126,7 +12226,7 @@
       <c r="AB5" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AC5" s="53" t="str">
+      <c r="AC5" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AD5" s="3" t="str">
@@ -12144,7 +12244,7 @@
       <c r="AH5" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AI5" s="53" t="str">
+      <c r="AI5" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AJ5" s="5" t="str">
@@ -12162,7 +12262,7 @@
       <c r="AN5" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AO5" s="53" t="str">
+      <c r="AO5" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AP5" s="5" t="str">
@@ -12186,7 +12286,7 @@
       <c r="C7" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="D7" s="53" t="str">
+      <c r="D7" s="52" t="str">
         <v>02</v>
       </c>
       <c r="E7" s="3" t="str">
@@ -12204,7 +12304,7 @@
       <c r="I7" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="J7" s="53" t="str">
+      <c r="J7" s="52" t="str">
         <v>02</v>
       </c>
       <c r="K7" s="3" t="str">
@@ -12222,7 +12322,7 @@
       <c r="O7" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P7" s="53" t="str">
+      <c r="P7" s="52" t="str">
         <v>09</v>
       </c>
       <c r="Q7" s="3" t="str">
@@ -12261,7 +12361,7 @@
       <c r="AB7" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AC7" s="53" t="str">
+      <c r="AC7" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AD7" s="3" t="str">
@@ -12279,7 +12379,7 @@
       <c r="AH7" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AI7" s="53" t="str">
+      <c r="AI7" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AJ7" s="5" t="str">
@@ -12297,7 +12397,7 @@
       <c r="AN7" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AO7" s="53" t="str">
+      <c r="AO7" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AP7" s="5" t="str">
@@ -12321,7 +12421,7 @@
       <c r="C8" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="D8" s="53" t="str">
+      <c r="D8" s="52" t="str">
         <v>02</v>
       </c>
       <c r="E8" s="3" t="str">
@@ -12339,7 +12439,7 @@
       <c r="I8" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="J8" s="53" t="str">
+      <c r="J8" s="52" t="str">
         <v>02</v>
       </c>
       <c r="K8" s="3" t="str">
@@ -12357,7 +12457,7 @@
       <c r="O8" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P8" s="53" t="str">
+      <c r="P8" s="52" t="str">
         <v>09</v>
       </c>
       <c r="Q8" s="3" t="str">
@@ -12396,7 +12496,7 @@
       <c r="AB8" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AC8" s="53" t="str">
+      <c r="AC8" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AD8" s="3" t="str">
@@ -12414,7 +12514,7 @@
       <c r="AH8" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AI8" s="53" t="str">
+      <c r="AI8" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AJ8" s="5" t="str">
@@ -12432,7 +12532,7 @@
       <c r="AN8" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AO8" s="53" t="str">
+      <c r="AO8" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AP8" s="5" t="str">
@@ -12456,7 +12556,7 @@
       <c r="C9" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="D9" s="53" t="str">
+      <c r="D9" s="52" t="str">
         <v>02</v>
       </c>
       <c r="E9" s="3" t="str">
@@ -12474,7 +12574,7 @@
       <c r="I9" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="J9" s="53" t="str">
+      <c r="J9" s="52" t="str">
         <v>02</v>
       </c>
       <c r="K9" s="3" t="str">
@@ -12492,7 +12592,7 @@
       <c r="O9" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P9" s="53" t="str">
+      <c r="P9" s="52" t="str">
         <v>09</v>
       </c>
       <c r="Q9" s="3" t="str">
@@ -12531,7 +12631,7 @@
       <c r="AB9" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AC9" s="53" t="str">
+      <c r="AC9" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AD9" s="3" t="str">
@@ -12549,7 +12649,7 @@
       <c r="AH9" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AI9" s="53" t="str">
+      <c r="AI9" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AJ9" s="5" t="str">
@@ -12567,7 +12667,7 @@
       <c r="AN9" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AO9" s="53" t="str">
+      <c r="AO9" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AP9" s="5" t="str">
@@ -12591,7 +12691,7 @@
       <c r="C10" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="D10" s="53" t="str">
+      <c r="D10" s="52" t="str">
         <v>02</v>
       </c>
       <c r="E10" s="3" t="str">
@@ -12609,7 +12709,7 @@
       <c r="I10" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="J10" s="53" t="str">
+      <c r="J10" s="52" t="str">
         <v>02</v>
       </c>
       <c r="K10" s="3" t="str">
@@ -12627,7 +12727,7 @@
       <c r="O10" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="P10" s="53" t="str">
+      <c r="P10" s="52" t="str">
         <v>09</v>
       </c>
       <c r="Q10" s="3" t="str">
@@ -12666,7 +12766,7 @@
       <c r="AB10" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AC10" s="53" t="str">
+      <c r="AC10" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AD10" s="3" t="str">
@@ -12684,7 +12784,7 @@
       <c r="AH10" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AI10" s="53" t="str">
+      <c r="AI10" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AJ10" s="5" t="str">
@@ -12702,7 +12802,7 @@
       <c r="AN10" s="3" t="str">
         <v>FD</v>
       </c>
-      <c r="AO10" s="53" t="str">
+      <c r="AO10" s="52" t="str">
         <v>02</v>
       </c>
       <c r="AP10" s="5" t="str">
@@ -12726,7 +12826,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>417</v>
       </c>
     </row>

--- a/Research/TH9800_Packets.xlsx
+++ b/Research/TH9800_Packets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SleepyNinja\.git\TH9800_CAT\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B2F4BF-7C5B-4C44-9FD0-2730202424DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F6CB4-4DCC-41A8-A8B1-4707B607C55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10910" windowWidth="38620" windowHeight="21100" tabRatio="736" activeTab="1" xr2:uid="{96F0B5EF-7042-4BBD-B54F-B5D392DC829F}"/>
+    <workbookView xWindow="19090" yWindow="-10910" windowWidth="38620" windowHeight="21100" tabRatio="736" activeTab="2" xr2:uid="{96F0B5EF-7042-4BBD-B54F-B5D392DC829F}"/>
   </bookViews>
   <sheets>
     <sheet name="Power On Seq" sheetId="15" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="488">
   <si>
     <t>0xAA</t>
   </si>
@@ -1740,6 +1740,18 @@
   </si>
   <si>
     <t>01-09</t>
+  </si>
+  <si>
+    <t>Data0</t>
+  </si>
+  <si>
+    <t>**Turns on display backlight</t>
+  </si>
+  <si>
+    <t>*Turns off display backlight (reset?)</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2360,10 +2372,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2825,14 +2833,14 @@
     <tableColumn id="3" xr3:uid="{BC7B38DB-29F2-45A7-8118-B376C72292E3}" name="Preamble2" dataDxfId="47"/>
     <tableColumn id="4" xr3:uid="{8C74238B-E441-4CF6-8377-1938502F4764}" name="Pkt Len" dataDxfId="46"/>
     <tableColumn id="5" xr3:uid="{14E6B72F-F470-492B-836A-86AFC92C6217}" name="CMD" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{D16C1A83-C1E0-4681-A258-D68A1BF3E85A}" name="Data" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{D07B0E56-2AA1-4589-AF53-8A7D15DEE845}" name="Data2" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{4FDD1125-7612-48D2-95BB-B06394750991}" name="Data3" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{A9BB44E0-A133-4943-83EF-D9A3EC1D9343}" name="Data4" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{B19CFFE3-B7ED-4D94-9DAD-AECC72DFFA12}" name="Data5" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{E090584C-B369-4B21-855B-9D386F9C3142}" name="Data6" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{7D714C2E-5A0F-44AB-A66F-CD4B61CAB118}" name="Data7" dataDxfId="38"/>
-    <tableColumn id="13" xr3:uid="{C5512BCA-369B-4ADD-A1A9-4A32AED2B01E}" name="Data8" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{D16C1A83-C1E0-4681-A258-D68A1BF3E85A}" name="Data0" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{D07B0E56-2AA1-4589-AF53-8A7D15DEE845}" name="Data1" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{4FDD1125-7612-48D2-95BB-B06394750991}" name="Data2" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{A9BB44E0-A133-4943-83EF-D9A3EC1D9343}" name="Data3" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{B19CFFE3-B7ED-4D94-9DAD-AECC72DFFA12}" name="Data4" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{E090584C-B369-4B21-855B-9D386F9C3142}" name="Data5" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{7D714C2E-5A0F-44AB-A66F-CD4B61CAB118}" name="Data6" dataDxfId="38"/>
+    <tableColumn id="13" xr3:uid="{C5512BCA-369B-4ADD-A1A9-4A32AED2B01E}" name="Data7" dataDxfId="37"/>
     <tableColumn id="14" xr3:uid="{D989F10A-B7AC-4710-874D-27CB4FA497BA}" name="Checksum" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3169,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15F8E68-08D0-4CAC-823D-87C2636A73EF}">
   <dimension ref="A1:CW174"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="G7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,7 +3188,7 @@
     <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3390,7 +3398,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="59"/>
       <c r="D17" s="60" t="s">
         <v>0</v>
@@ -3402,7 +3410,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="59"/>
       <c r="D18" s="60" t="s">
         <v>1</v>
@@ -3414,7 +3422,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="59"/>
       <c r="D19" s="61" t="s">
         <v>17</v>
@@ -3426,7 +3434,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="59"/>
       <c r="D20" s="62" t="s">
         <v>168</v>
@@ -3441,7 +3449,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="59"/>
       <c r="D21" s="63" t="s">
         <v>169</v>
@@ -3464,7 +3472,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
       <c r="G22" s="3"/>
@@ -3474,7 +3482,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="59" t="s">
         <v>0</v>
       </c>
@@ -3486,7 +3494,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="59" t="s">
         <v>1</v>
       </c>
@@ -3498,7 +3506,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="64" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3518,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="65" t="s">
         <v>167</v>
       </c>
@@ -3522,7 +3530,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="66" t="s">
         <v>8</v>
       </c>
@@ -3537,7 +3545,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="67" t="s">
         <v>166</v>
       </c>
@@ -3561,8 +3569,11 @@
       <c r="L28" s="11" t="str">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
       <c r="G29" s="3"/>
@@ -3572,19 +3583,19 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="59"/>
       <c r="D30" s="60" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="59"/>
       <c r="D31" s="60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="59"/>
       <c r="D32" s="61" t="s">
         <v>2</v>
@@ -4029,71 +4040,74 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C81" s="59" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="60"/>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C82" s="64" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="60"/>
     </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C83" s="65" t="s">
         <v>18</v>
       </c>
       <c r="D83" s="60"/>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C84" s="66" t="s">
         <v>4</v>
       </c>
       <c r="D84" s="60"/>
     </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C85" s="66" t="s">
         <v>18</v>
       </c>
       <c r="D85" s="60"/>
     </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C86" s="67" t="s">
         <v>170</v>
       </c>
       <c r="D86" s="60"/>
     </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C87" s="59" t="s">
         <v>0</v>
       </c>
       <c r="D87" s="60"/>
       <c r="G87" s="3" t="str" cm="1">
-        <f t="array" ref="G87:M87">TRANSPOSE(C80:C86)</f>
-        <v>0xAA</v>
+        <f t="array" ref="G87:M87">TRANSPOSE(SUBSTITUTE(C80:C86,"0x",""))</f>
+        <v>AA</v>
       </c>
       <c r="H87" s="3" t="str">
-        <v>0xFD</v>
+        <v>FD</v>
       </c>
       <c r="I87" s="52" t="str">
-        <v>0x03</v>
+        <v>03</v>
       </c>
       <c r="J87" s="55" t="str">
-        <v>0x41</v>
+        <v>41</v>
       </c>
       <c r="K87" s="5" t="str">
-        <v>0xFF</v>
+        <v>FF</v>
       </c>
       <c r="L87" s="5" t="str">
-        <v>0x41</v>
+        <v>41</v>
       </c>
       <c r="M87" s="11" t="str">
-        <v>0xFC</v>
-      </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+        <v>FC</v>
+      </c>
+      <c r="O87" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C88" s="59" t="s">
         <v>1</v>
       </c>
@@ -4106,7 +4120,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C89" s="64" t="s">
         <v>5</v>
       </c>
@@ -4119,7 +4133,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C90" s="65" t="s">
         <v>9</v>
       </c>
@@ -4132,7 +4146,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C91" s="66" t="s">
         <v>10</v>
       </c>
@@ -4145,7 +4159,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C92" s="67" t="s">
         <v>11</v>
       </c>
@@ -4158,39 +4172,39 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C93" s="59" t="s">
         <v>0</v>
       </c>
       <c r="D93" s="60"/>
-      <c r="G93" s="98"/>
-      <c r="H93" s="98"/>
-      <c r="I93" s="98"/>
-      <c r="J93" s="98"/>
-      <c r="K93" s="98"/>
-      <c r="L93" s="98"/>
-      <c r="M93" s="98"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C94" s="59" t="s">
         <v>1</v>
       </c>
       <c r="D94" s="60"/>
-      <c r="G94" s="98"/>
-      <c r="H94" s="98"/>
-      <c r="I94" s="98"/>
-      <c r="J94" s="98"/>
-      <c r="K94" s="98"/>
-      <c r="L94" s="98"/>
-      <c r="M94" s="98"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C95" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="60"/>
     </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C96" s="65" t="s">
         <v>5</v>
       </c>
@@ -4955,7 +4969,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:DE1 C2:DE3 A2:B6 C4:N6 P4:DE8 A7:N8 A9:DE80 A81:F82 N81:DE82 A83:DE1048576">
+  <conditionalFormatting sqref="A1:DE1 C2:DE3 A2:B6 C4:N6 P4:DE8 A7:N8 A81:F82 N81:DE82 A83:DE1048576 A9:DE80">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
@@ -5153,9 +5167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BDC6A6-DD56-4A6D-AAE0-FC521CD70E15}">
   <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15:Q15"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9085,10 +9099,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A0B156-B528-431C-B24E-1CA04DF6378E}">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A47:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9125,28 +9139,28 @@
         <v>175</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>197</v>
+        <v>484</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>210</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>211</v>
       </c>
       <c r="N1" s="31" t="s">
         <v>87</v>
@@ -9387,7 +9401,9 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="L7" s="18" t="s">
+        <v>487</v>
+      </c>
       <c r="M7" s="18"/>
       <c r="N7" s="30"/>
       <c r="P7" s="85" t="s">
@@ -9998,7 +10014,9 @@
         <v>200</v>
       </c>
       <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="78" t="s">
+        <v>200</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -10026,7 +10044,9 @@
         <v>188</v>
       </c>
       <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="78" t="s">
+        <v>223</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
@@ -10153,7 +10173,7 @@
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="78" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -10312,7 +10332,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="30"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>304</v>
       </c>
@@ -10340,7 +10360,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="30"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>305</v>
       </c>
@@ -10368,7 +10388,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="30"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>307</v>
       </c>
@@ -10396,7 +10416,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="30"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>308</v>
       </c>
@@ -10426,7 +10446,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="30"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>309</v>
       </c>
@@ -10454,7 +10474,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="30"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>310</v>
       </c>
@@ -10484,7 +10504,7 @@
       <c r="M38" s="18"/>
       <c r="N38" s="30"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>312</v>
       </c>
@@ -10512,7 +10532,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="30"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>311</v>
       </c>
@@ -10539,10 +10559,8 @@
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
       <c r="N40" s="30"/>
-      <c r="R40" s="97"/>
-      <c r="S40" s="97"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>222</v>
       </c>
@@ -10570,7 +10588,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="30"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>221</v>
       </c>
@@ -10598,7 +10616,7 @@
       <c r="M42" s="18"/>
       <c r="N42" s="30"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>276</v>
       </c>
@@ -10626,7 +10644,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="30"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>277</v>
       </c>
@@ -10654,7 +10672,7 @@
       <c r="M44" s="18"/>
       <c r="N44" s="30"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>275</v>
       </c>
@@ -10682,7 +10700,7 @@
       <c r="M45" s="18"/>
       <c r="N45" s="30"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>274</v>
       </c>
@@ -10710,7 +10728,7 @@
       <c r="M46" s="18"/>
       <c r="N46" s="30"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>283</v>
       </c>
@@ -10738,7 +10756,7 @@
       <c r="M47" s="18"/>
       <c r="N47" s="30"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>282</v>
       </c>

--- a/Research/TH9800_Packets.xlsx
+++ b/Research/TH9800_Packets.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SleepyNinja\.git\TH9800_CAT\Research\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F6CB4-4DCC-41A8-A8B1-4707B607C55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9289CD57-92BB-4C96-AA41-FA3F8A862F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-10910" windowWidth="38620" windowHeight="21100" tabRatio="736" activeTab="2" xr2:uid="{96F0B5EF-7042-4BBD-B54F-B5D392DC829F}"/>
   </bookViews>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -4969,7 +4964,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:DE1 C2:DE3 A2:B6 C4:N6 P4:DE8 A7:N8 A81:F82 N81:DE82 A83:DE1048576 A9:DE80">
+  <conditionalFormatting sqref="A1:DE1 C2:DE3 A2:B6 C4:N6 P4:DE8 A7:N8 A9:DE80 A81:F82 N81:DE82 A83:DE1048576">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"AA"</formula>
     </cfRule>
@@ -4984,6 +4979,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5046,6 +5042,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5160,6 +5157,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9094,6 +9092,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11427,8 +11426,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11633,8 +11633,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11699,6 +11700,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14032,6 +14034,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16098,6 +16101,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16303,6 +16307,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16626,5 +16631,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>